--- a/Data/Excel/201/Today.xlsx
+++ b/Data/Excel/201/Today.xlsx
@@ -537,880 +537,894 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>【花小烙】不小心投胎成了一头雄狮，你会过上什么样的狮生？</t>
+          <t>蛋仔派对：3000蛋币抽奥特曼盲盒？怪兽入侵，哇浪辉变身奥特曼！</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>画渣花小烙</t>
+          <t>浪哥穿越者呀</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45869.42210648148</v>
+        <v>45870.04784722222</v>
       </c>
       <c r="E2" t="n">
-        <v>189300</v>
+        <v>449366</v>
       </c>
       <c r="F2" t="n">
-        <v>28275</v>
+        <v>6350</v>
       </c>
       <c r="G2" t="n">
-        <v>1076</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>989</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>2572</v>
+        <v>6401</v>
       </c>
       <c r="J2" t="n">
-        <v>4240</v>
+        <v>386</v>
       </c>
       <c r="K2" t="n">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>雄狮的一生也是非常的不容易啊！</t>
+          <t>蛋仔派对：3000蛋币抽奥特曼盲盒？怪兽入侵，哇浪辉变身奥特曼！</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Gm8CzKE4F</t>
+          <t>https://www.bilibili.com/video/BV1ZVhEz5E2h</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/c3d11ae879dfbcd52ac1c5d532f369ad71e20083.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/e56b7257c26038b849bfb5234f5dea6f8ee5df0c.jpg</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>BV1Gm8CzKE4F</t>
+          <t>BV1ZVhEz5E2h</t>
         </is>
       </c>
       <c r="Q2" t="n">
         <v>201</v>
       </c>
       <c r="R2" t="n">
-        <v>402576555</v>
+        <v>3494372433726222</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>45869.63765046297</v>
+        <v>45870.50835648148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>深夜探秘秦始皇陵！我竟然挖出了诡异之物，太恐怖了！</t>
+          <t>男子头部被子弹击中，耳塞竟救了自己一命？</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>01:37</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东尼ookii</t>
+          <t>科学探世界</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45869.47881944444</v>
+        <v>45870.10416666666</v>
       </c>
       <c r="E3" t="n">
-        <v>179032</v>
+        <v>368424</v>
       </c>
       <c r="F3" t="n">
-        <v>9131</v>
+        <v>491</v>
       </c>
       <c r="G3" t="n">
-        <v>345</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1181</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1837</v>
+        <v>530</v>
       </c>
       <c r="J3" t="n">
-        <v>1428</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>89</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>简介：好久没整活了哈哈哈哈哈，三连了吗？三连的都是我义父！！义父们来评论区集合一下呗！！！！（视频中的道具都收走了，爱护环境人人有责）</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Sq82zBEa1</t>
+          <t>https://www.bilibili.com/video/BV13m8CzNEdV</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/8b57d0ce230770b662beb58449c3597f3535351c.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/bce7e8672d916e3c535247bddec0d43aacba80e1.jpg</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>BV1Sq82zBEa1</t>
+          <t>BV13m8CzNEdV</t>
         </is>
       </c>
       <c r="Q3" t="n">
         <v>201</v>
       </c>
       <c r="R3" t="n">
-        <v>285499073</v>
+        <v>1377031280</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>45869.63761574074</v>
+        <v>45870.50833333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>【食录】为什么柳州本地螺蛳粉不臭？是谁“搞臭”了螺蛳粉？</t>
+          <t>地球上最罕见的四种神奇动物，每一种都是独一无二的存在！</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>08:44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛博食录</t>
+          <t>全球-科普</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45869.42072916667</v>
+        <v>45870.06207175926</v>
       </c>
       <c r="E4" t="n">
-        <v>126446</v>
+        <v>334419</v>
       </c>
       <c r="F4" t="n">
-        <v>10737</v>
+        <v>1515</v>
       </c>
       <c r="G4" t="n">
-        <v>921</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2526</v>
+        <v>1797</v>
       </c>
       <c r="J4" t="n">
-        <v>1781</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>柳州真是个好地方呀，好山好水好风光呀。
-感谢柳州商务局提供的帮助，还有柳江人家、小柒螺蛳粉、笋丫头、手工酸笋珍珍在拍摄上提供的支持。</t>
+          <t>地球上最罕见的四种神奇动物，每一种都是独一无二的存在！</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1hU8CzeECx</t>
+          <t>https://www.bilibili.com/video/BV1cThEzJExn</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/98104abdd3f04e02f214b45bc41495efa20bab73.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/1bd677e3eae41288bd40269f6a4e1337888bb865.jpg</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>BV1hU8CzeECx</t>
+          <t>BV1cThEzJExn</t>
         </is>
       </c>
       <c r="Q4" t="n">
         <v>201</v>
       </c>
       <c r="R4" t="n">
-        <v>1937308559</v>
+        <v>3493293836995000</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>45869.63765046297</v>
+        <v>45870.50835648148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>被刀捅了该如何生存下来？</t>
+          <t>【小魔】猪猪是怎么走上我们餐桌的？</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>03:31</t>
+          <t>01:25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>好奇心会社</t>
+          <t>-我是小魔-</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45869.47563657408</v>
+        <v>45870.13194444445</v>
       </c>
       <c r="E5" t="n">
-        <v>117019</v>
+        <v>98762</v>
       </c>
       <c r="F5" t="n">
-        <v>5471</v>
+        <v>2583</v>
       </c>
       <c r="G5" t="n">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="H5" t="n">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="I5" t="n">
-        <v>758</v>
+        <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K5" t="n">
-        <v>78</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>假如有一天你意外被人捅了一刀，你该怎么办才能有最大几率存活下来呢？是应该继续插着，还是立即拔出来？
-如果刀的表面涂有剧毒，这时候你该怎么办呢？另外身体不同的部位受伤，该怎么处理呢？</t>
-        </is>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1NT82zcELQ</t>
+          <t>https://www.bilibili.com/video/BV1AZ8rzSE5V</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/90662c2fdff60610b03c0c56fa85cbebb8434f7a.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/578a273c29e3bda8043b0fd57add498e4e1eb598.jpg</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>BV1NT82zcELQ</t>
+          <t>BV1AZ8rzSE5V</t>
         </is>
       </c>
       <c r="Q5" t="n">
         <v>201</v>
       </c>
       <c r="R5" t="n">
-        <v>379247856</v>
+        <v>87190721</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>45869.63761574074</v>
+        <v>45870.50832175926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>人类为什么是自然界中的传奇耐毒王？</t>
+          <t>这一天，一起致敬中国空军来时路…</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>03:16</t>
+          <t>05:04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上将王司徒</t>
+          <t>玉渊谭天</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45869.45833333334</v>
+        <v>45870.00712962963</v>
       </c>
       <c r="E6" t="n">
-        <v>108478</v>
+        <v>76658</v>
       </c>
       <c r="F6" t="n">
-        <v>11426</v>
+        <v>10435</v>
       </c>
       <c r="G6" t="n">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="H6" t="n">
-        <v>401</v>
+        <v>508</v>
       </c>
       <c r="I6" t="n">
-        <v>830</v>
+        <v>1673</v>
       </c>
       <c r="J6" t="n">
-        <v>546</v>
+        <v>2780</v>
       </c>
       <c r="K6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>442</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>这几年，中国战斗机频频传出好消息。但如果回头看，很多人曾讨论面对国外的先进武器装备，我们到底能不能行。而在曾经的劣势条件下，一代代军工人用实际行动回答，“我们想过所有办法，就是没有想过放弃”。八一建军节之际，我们一起致敬来时路！</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1f1hAzTENh</t>
+          <t>https://www.bilibili.com/video/BV1g8hEzeEuX</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/2dd6d6a6835d38fadcaa42305fd4e71404ee0558.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/e2c4edfeac7ba05e8f7352c92b70e270bad9a12f.jpg</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>BV1f1hAzTENh</t>
+          <t>BV1g8hEzeEuX</t>
         </is>
       </c>
       <c r="Q6" t="n">
         <v>201</v>
       </c>
       <c r="R6" t="n">
-        <v>1271916102</v>
+        <v>335850246</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>45869.63762731481</v>
+        <v>45870.50837962963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>大家吃的药品要涨价了，医生却很高兴！原因很不简单！</t>
+          <t>【官方双语】陶哲轩访谈（一）：宇宙尺度阶梯</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02:05</t>
+          <t>28:33</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>派克曾</t>
+          <t>3Blue1Brown</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45869.08680555555</v>
+        <v>45870.10416666666</v>
       </c>
       <c r="E7" t="n">
-        <v>91861</v>
+        <v>62307</v>
       </c>
       <c r="F7" t="n">
-        <v>4694</v>
+        <v>4991</v>
       </c>
       <c r="G7" t="n">
-        <v>854</v>
+        <v>350</v>
       </c>
       <c r="H7" t="n">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="I7" t="n">
-        <v>367</v>
+        <v>2542</v>
       </c>
       <c r="J7" t="n">
-        <v>95</v>
+        <v>1881</v>
       </c>
       <c r="K7" t="n">
-        <v>253</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>473</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>本视频为3Blue1Brown对谈菲尔兹奖得主陶哲轩，以可视化的形式揭示宇宙中的各级尺度是如何通过观察和数学得到的  
+https://youtu.be/YdOXS_9_P4U?si=v7_U17nTrzMorqB8  
+翻译：Asuka Minato  凡人忆拾  pastroe
+校对：凡人忆拾  烦恼诗集
+时间轴：贰鼠
+感谢观众的支持: https://3b1b.co/support
+一键三联与分享，也是最大的支持！</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV15VhAzFEDj</t>
+          <t>https://www.bilibili.com/video/BV1Je81zQEet</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/369036c114a3c745bbdcbf3980bafc7e8df86633.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/6ae8466a594a5ba183dbf817558ecc77947a8cb4.jpg</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>BV15VhAzFEDj</t>
+          <t>BV1Je81zQEet</t>
         </is>
       </c>
       <c r="Q7" t="n">
         <v>201</v>
       </c>
       <c r="R7" t="n">
-        <v>410558000</v>
+        <v>88461692</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.50833333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>地球自转轴倾斜90度</t>
+          <t>基础物理突破！欧洲核子中心首次演示反物质量子比特，持续稳定震荡近一分钟</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04:03</t>
+          <t>04:58</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>多奇探秘</t>
+          <t>科学透镜</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45869.18458333334</v>
+        <v>45870.17013888889</v>
       </c>
       <c r="E8" t="n">
-        <v>75494</v>
+        <v>61656</v>
       </c>
       <c r="F8" t="n">
-        <v>4319</v>
+        <v>4456</v>
       </c>
       <c r="G8" t="n">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="H8" t="n">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="I8" t="n">
-        <v>355</v>
+        <v>928</v>
       </c>
       <c r="J8" t="n">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>240</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>相关学术研究：
+https://doi.org/10.1038/s41586-025-09323-1
+DOI：https://doi.org/10.1103/gnp5-4y8k
+https://doi.org/10.3389/fpsyg.2025.1605041
+https://doi.org/10.1016/j.ajcnut.2025.05.001
+https://doi.org/10.1111/vox.70030</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV12v8kzWEYL</t>
+          <t>https://www.bilibili.com/video/BV1878mz3Ebh</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/64038d70f92c154e3dc2e4c0495369e5d1a058f1.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/645120c154c5ac6a58890d2a372511d9f0bcbc38.jpg</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>BV12v8kzWEYL</t>
+          <t>BV1878mz3Ebh</t>
         </is>
       </c>
       <c r="Q8" t="n">
         <v>201</v>
       </c>
       <c r="R8" t="n">
-        <v>3546617688886097</v>
+        <v>23791195</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>45869.63777777777</v>
+        <v>45870.52748842593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>为什么说任天堂是东半球最强法务部？【差评君】</t>
+          <t>最新研究：宇宙已进入不惑之年，200亿年后宇宙将迎来大坍缩！？【天文新鲜事】</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>07:53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>差评君</t>
+          <t>Linvo说宇宙</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45869.41666666666</v>
+        <v>45870.375</v>
       </c>
       <c r="E9" t="n">
-        <v>62408</v>
+        <v>50543</v>
       </c>
       <c r="F9" t="n">
-        <v>5717</v>
+        <v>4164</v>
       </c>
       <c r="G9" t="n">
-        <v>359</v>
+        <v>518</v>
       </c>
       <c r="H9" t="n">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="I9" t="n">
-        <v>1392</v>
+        <v>1061</v>
       </c>
       <c r="J9" t="n">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="K9" t="n">
-        <v>3086</v>
+        <v>115</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>讲过西半球最强法务部迪士尼了，不讲地球另一边的任天堂似乎说不过去。今天来看看老任「东半球最强法务部」的称号是如何练成的？</t>
+          <t>还记得发现暗能量正在减弱那事么？暗能量变弱意味着宇宙加速膨胀的趋势正在减缓。那这样的话，会不会有一天我们的宇宙会停止膨胀，进而转向收缩，最终迎来“大坍缩”呢？ 
+[1] Hoang Nhan Luu, Yu-Cheng Qiu, S. -H. Henry Tye. The Lifespan of our Universe. arXiv preprint arXiv:2506.24011. (2025)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1ZShAzeEXn</t>
+          <t>https://www.bilibili.com/video/BV1Hr87zVEtR</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/3ecd318b9a35cb053be437f2cc906cb45c1f2a16.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/fef9cd4a558d188537d8b9f3a5d3ed6537fd3e90.jpg</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>BV1ZShAzeEXn</t>
+          <t>BV1Hr87zVEtR</t>
         </is>
       </c>
       <c r="Q9" t="n">
         <v>201</v>
       </c>
       <c r="R9" t="n">
-        <v>19319172</v>
+        <v>357515451</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>45869.63765046297</v>
+        <v>45870.50820601852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>731的王牌病原体，不死不灭的生化武器</t>
+          <t>两广福建，周末不下雨就这么难吗？</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09:23</t>
+          <t>01:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>颀思诺想</t>
+          <t>中气爱怎么说</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45869.0625</v>
+        <v>45870.29570601852</v>
       </c>
       <c r="E10" t="n">
-        <v>59117</v>
+        <v>38316</v>
       </c>
       <c r="F10" t="n">
-        <v>3059</v>
+        <v>2880</v>
       </c>
       <c r="G10" t="n">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="H10" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I10" t="n">
-        <v>914</v>
+        <v>136</v>
       </c>
       <c r="J10" t="n">
-        <v>704</v>
+        <v>31</v>
       </c>
       <c r="K10" t="n">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>铭记历史！</t>
+          <t>两广福建人的周末又要被暴雨毁了，周一周二还可能要冒着大雨上班，台风“竹节草”难辞其咎！为什么这么说？</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1T4hAznErh</t>
+          <t>https://www.bilibili.com/video/BV147hJzhEQ8</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/227da9b2be87e1e0ee759b5165409b5668810143.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/82e3c1dcee86b0206422aa517284210e4333a669.jpg</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>BV1T4hAznErh</t>
+          <t>BV147hJzhEQ8</t>
         </is>
       </c>
       <c r="Q10" t="n">
         <v>201</v>
       </c>
       <c r="R10" t="n">
-        <v>382442218</v>
+        <v>3546668546919037</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>45869.63783564815</v>
+        <v>45870.53427083333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>红薯那么甜，为什么没能成为主粮？</t>
+          <t>钴（重制版上部）：从毒物到战略物资（毒物部分）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>03:07</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>行者道荣</t>
+          <t>H2元素实验室</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45869.41666666666</v>
+        <v>45870.41666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>55645</v>
+        <v>23814</v>
       </c>
       <c r="F11" t="n">
-        <v>5456</v>
+        <v>4333</v>
       </c>
       <c r="G11" t="n">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="H11" t="n">
+        <v>503</v>
+      </c>
+      <c r="I11" t="n">
+        <v>933</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2089</v>
+      </c>
+      <c r="K11" t="n">
         <v>175</v>
       </c>
-      <c r="I11" t="n">
-        <v>441</v>
-      </c>
-      <c r="J11" t="n">
-        <v>233</v>
-      </c>
-      <c r="K11" t="n">
-        <v>83</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>钴的重置文案有一万多字，所以会分成两期，这一期覆盖了从负数到+I的钴化合物，大多实验室难得一见。</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1U88kzoE1V</t>
+          <t>https://www.bilibili.com/video/BV1t7hJzhERG</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/e49aba268ea3fc2ca756fe5beb6225eeee061a0a.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/117eab5318674768e5c23640384cf751b8de8ce8.jpg</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>BV1U88kzoE1V</t>
+          <t>BV1t7hJzhERG</t>
         </is>
       </c>
       <c r="Q11" t="n">
         <v>201</v>
       </c>
       <c r="R11" t="n">
-        <v>3537118582278552</v>
+        <v>414878461</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>45869.63765046297</v>
+        <v>45870.53381944444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>高温下半场，8月才正式开始</t>
+          <t>致敬建军节，杨老师详解经典国产81杠自动步枪与携行具使用方法！</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>02:18</t>
+          <t>06:36</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中气爱怎么说</t>
+          <t>军事博物馆</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45869.41934027777</v>
+        <v>45870.15395833334</v>
       </c>
       <c r="E12" t="n">
-        <v>52779</v>
+        <v>20765</v>
       </c>
       <c r="F12" t="n">
-        <v>3753</v>
+        <v>3857</v>
       </c>
       <c r="G12" t="n">
-        <v>479</v>
+        <v>268</v>
       </c>
       <c r="H12" t="n">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="I12" t="n">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="J12" t="n">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="K12" t="n">
-        <v>268</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>8月高温又要加强了！热得很稳定的西安重庆变本加厉，连续一周都要超过40度。而台风竹节草也没有太深入内陆，中西部这一长条区域吹完台风外围“空调外机”之后将无缝衔接到大陆高压热穹顶笼罩，啥时候才能凉快下来啊？</t>
-        </is>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1TR8Cz8EPu</t>
+          <t>https://www.bilibili.com/video/BV127h7zXEQG</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/f901de9a29d5988a6482051a698f94ec3b3383e9.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/050966512949a72f478d7e0bbc15c290686c4bc7.jpg</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>BV1TR8Cz8EPu</t>
+          <t>BV127h7zXEQG</t>
         </is>
       </c>
       <c r="Q12" t="n">
         <v>201</v>
       </c>
       <c r="R12" t="n">
-        <v>3546668546919037</v>
+        <v>1070859358</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>45869.63765046297</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>把一只大蟑螂丢进荧光粉！会发生什么事？</t>
+          <t>福建舰来了！歼35海军版涂装也来了！首次曝光弹射舰载机！</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>02:14</t>
+          <t>06:09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明哥奇趣</t>
+          <t>房叔叨叨叨</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45869.35592592593</v>
+        <v>45870.44559027778</v>
       </c>
       <c r="E13" t="n">
-        <v>50128</v>
+        <v>19172</v>
       </c>
       <c r="F13" t="n">
-        <v>2713</v>
+        <v>1770</v>
       </c>
       <c r="G13" t="n">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="H13" t="n">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="I13" t="n">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="J13" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="K13" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>感谢小伙伴们的关注和支持！</t>
+          <t>央视曝光福建舰弹射歼15T，歼35海军型双机并列画面太美！</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1o58yz1ETK</t>
+          <t>https://www.bilibili.com/video/BV16BhHzREeW</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/ec380fdbd44e431fe7aa303aa624ca46d3b05510.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/9999c477afb40bb4621c4936347a80866f95a976.jpg</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>BV1o58yz1ETK</t>
+          <t>BV16BhHzREeW</t>
         </is>
       </c>
       <c r="Q13" t="n">
         <v>201</v>
       </c>
       <c r="R13" t="n">
-        <v>49827106</v>
+        <v>59412358</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>45869.63769675926</v>
+        <v>45870.53371527778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>列屿垃圾山后续，曝光后几个小时就开始连夜整改，大家一起见证绿水青山的回归，加油#绿水青山就是金山银山</t>
+          <t>真爱无敌</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00:43</t>
+          <t>01:16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>渔猎齐哥</t>
+          <t>澳大利亚工作</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45869.36346064815</v>
+        <v>45870.08949074074</v>
       </c>
       <c r="E14" t="n">
-        <v>41833</v>
+        <v>17366</v>
       </c>
       <c r="F14" t="n">
-        <v>8614</v>
+        <v>223</v>
       </c>
       <c r="G14" t="n">
-        <v>366</v>
+        <v>36</v>
       </c>
       <c r="H14" t="n">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="J14" t="n">
-        <v>3142</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1419,244 +1433,252 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1d78yzCEEi</t>
+          <t>https://www.bilibili.com/video/BV1V1h7zeEmW</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/9a7d95b616ed20a0a33e064ea45e67ed04587cc9.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/2f4f1138a97cf9fbf87d17e43bf95a2c112e0a82.jpg</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>BV1d78yzCEEi</t>
+          <t>BV1V1h7zeEmW</t>
         </is>
       </c>
       <c r="Q14" t="n">
         <v>201</v>
       </c>
       <c r="R14" t="n">
-        <v>25109224</v>
+        <v>3494353957816872</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>45869.63769675926</v>
+        <v>45870.50833333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>让面试时的“沉默对话”震耳欲聋！</t>
+          <t>李云龙谈火炮瞄准与概率论|火炮射击入门</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04:11</t>
+          <t>05:01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>耿同学讲故事</t>
+          <t>万物建模师</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45869.41666666666</v>
+        <v>45870</v>
       </c>
       <c r="E15" t="n">
-        <v>34126</v>
+        <v>17267</v>
       </c>
       <c r="F15" t="n">
-        <v>2530</v>
+        <v>1004</v>
       </c>
       <c r="G15" t="n">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="H15" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I15" t="n">
-        <v>351</v>
+        <v>641</v>
       </c>
       <c r="J15" t="n">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="K15" t="n">
-        <v>19</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>冷知识，人类造出的第一台计算机，首先被运用于火炮弹道学计算</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1AC8yzoETK</t>
+          <t>https://www.bilibili.com/video/BV1c58UzAEgu</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/0ad0acdaa72ca2798e2cbc82c21cb22e4687c2ad.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/6648755210aff40a49c4ce93c451c8c64b78477c.jpg</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>BV1AC8yzoETK</t>
+          <t>BV1c58UzAEgu</t>
         </is>
       </c>
       <c r="Q15" t="n">
         <v>201</v>
       </c>
       <c r="R15" t="n">
-        <v>1732848825</v>
+        <v>389372332</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>45869.63765046297</v>
+        <v>45870.50837962963</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>没有“宽带”的时候，“窄带”上网是怎样的？【柴知道Lite】</t>
+          <t>把百草枯倒给两条不同种类的大水蛭！会发生什么事？</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>02:34</t>
+          <t>02:37</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>柴知道Lite</t>
+          <t>明哥奇趣</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45869.39583333334</v>
+        <v>45870.41666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>23315</v>
+        <v>16612</v>
       </c>
       <c r="F16" t="n">
-        <v>1904</v>
+        <v>1224</v>
       </c>
       <c r="G16" t="n">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="H16" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="I16" t="n">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="J16" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K16" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>你“窄带上网”过吗？</t>
+          <t>感谢小伙伴们的关注和支持！</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1PR8rzQEai</t>
+          <t>https://www.bilibili.com/video/BV1EVgpzuE7g</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/34eb673c9200ad6ec3ed967cefede8c7b77481c7.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/13e857c07e93ca18b187d5f770d868f54ef453c9.jpg</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>BV1PR8rzQEai</t>
+          <t>BV1EVgpzuE7g</t>
         </is>
       </c>
       <c r="Q16" t="n">
         <v>201</v>
       </c>
       <c r="R16" t="n">
-        <v>3546622266968414</v>
+        <v>49827106</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>45869.63767361111</v>
+        <v>45870.50817129629</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>挠个痒就被整得社会性死亡？为什么真菌感染的瘙痒停不下来？【鉴定热门】</t>
+          <t>猜猜我是谁医学版——眼科诊疗</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>05:17</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>季不助</t>
+          <t>咸阳市第一人民医院</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45869.13130787037</v>
+        <v>45870.45833333334</v>
       </c>
       <c r="E17" t="n">
-        <v>17104</v>
+        <v>13131</v>
       </c>
       <c r="F17" t="n">
-        <v>1382</v>
+        <v>1670</v>
       </c>
       <c r="G17" t="n">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I17" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J17" t="n">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="K17" t="n">
-        <v>14</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+        <v>31</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>一档知识性、挑战性与趣味性一体的疾病探秘互动科普栏目。</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1SK8CzAEoU</t>
+          <t>https://www.bilibili.com/video/BV16y87z3ETL</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/ea452e2e5f1bae9ad920f5917019996f07488cb2.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/77dadfbe359172ee5a049e342a2f2690a5e4d52b.jpg</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>BV1SK8CzAEoU</t>
+          <t>BV16y87z3ETL</t>
         </is>
       </c>
       <c r="Q17" t="n">
         <v>201</v>
       </c>
       <c r="R17" t="n">
-        <v>1271453507</v>
+        <v>3546664799308154</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>45869.63780092593</v>
+        <v>45870.50814814815</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>徐立钓鱼，荒野钓鱼求生第 19 天</t>
+          <t>徐立，荒野钓鱼求生第 20 天</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1665,28 +1687,28 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45869.39100694445</v>
+        <v>45870.37967592593</v>
       </c>
       <c r="E18" t="n">
-        <v>15476</v>
+        <v>11895</v>
       </c>
       <c r="F18" t="n">
-        <v>631</v>
+        <v>501</v>
       </c>
       <c r="G18" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="H18" t="n">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="I18" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1695,18 +1717,18 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV17a8CzLEXz</t>
+          <t>https://www.bilibili.com/video/BV139hHzyEUh</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/423fb87fe77b7f2d1df07f6cef01a6ec7589c454.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/f2f8e10b2224dad80369b0d9b2f7bf43735fcd07.jpg</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>BV17a8CzLEXz</t>
+          <t>BV139hHzyEUh</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -1716,1507 +1738,1517 @@
         <v>437503612</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>45869.63767361111</v>
+        <v>45870.53392361111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>【狗子剧医】111天减脂29斤！大体重减脂医学指南：像清濑灰二一样科学跑步</t>
+          <t>12.7mm子弹真的能打断手臂？高速摄影还原其击中手臂的真实情况</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>01:45</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>狗子王Dogtor_Wang</t>
+          <t>沃说世界</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45869.16666666666</v>
+        <v>45870.18710648148</v>
       </c>
       <c r="E19" t="n">
-        <v>13436</v>
+        <v>10705</v>
       </c>
       <c r="F19" t="n">
-        <v>2252</v>
+        <v>102</v>
       </c>
       <c r="G19" t="n">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="H19" t="n">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>612</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>本视频特别硬核很容易被错过。
-以下为本期引用文献：
-静止和行走状态髌股关节应力数值
-Heino Brechter J, Powers CM. Patellofemoral stress during walking in persons with and without patellofemoral pain. Med Sci Sports Exerc. 2002 Oct;34(10):1582-93. doi: 10.1097/00005768-200210000-00009. PMID: 123705</t>
+          <t>子弹擦过、划伤、直击手臂：高速摄影还原12.7毫米子弹的真实破坏力</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1bw8zzJEdU</t>
+          <t>https://www.bilibili.com/video/BV1J7hnznEQU</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/ca2b963169cc1aed133d88775c25c35761507a15.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/19a7882893ab4bbb264022948ffeb215e9dee9f0.jpg</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>BV1bw8zzJEdU</t>
+          <t>BV1J7hnznEQU</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>201</v>
       </c>
       <c r="R19" t="n">
-        <v>2070952</v>
+        <v>1080333584</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.52744212963</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>俄乌士兵“私藏手机”的严重后果</t>
+          <t>突发:网购退货起纠纷！结果被快递小哥抹脖子！网友一边倒:活该！</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01:38</t>
+          <t>03:12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>壹品研究</t>
+          <t>小熊说天下</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45869.15439814814</v>
+        <v>45870.16303240741</v>
       </c>
       <c r="E20" t="n">
-        <v>10015</v>
+        <v>10439</v>
       </c>
       <c r="F20" t="n">
-        <v>412</v>
+        <v>332</v>
       </c>
       <c r="G20" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1RE8kzNEvS</t>
+          <t>https://www.bilibili.com/video/BV1jBh7zuE8m</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/5683eec2f6fa5c5f8363d6ceaddf73aa491c204f.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/e21c4a1ecec5ec92da60c5c2de7920744e69d730.jpg</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>BV1RE8kzNEvS</t>
+          <t>BV1jBh7zuE8m</t>
         </is>
       </c>
       <c r="Q20" t="n">
         <v>201</v>
       </c>
       <c r="R20" t="n">
-        <v>3494353181870282</v>
+        <v>3546922698673063</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>第一次打LOL上来就是五排</t>
+          <t>.338拉普弹，劲到底有多大</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>00:33</t>
+          <t>06:49</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中医男科陈广辉</t>
+          <t>Gewehrmann滑稽怪</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45869.04861111111</v>
+        <v>45870.229375</v>
       </c>
       <c r="E21" t="n">
-        <v>9989</v>
+        <v>9854</v>
       </c>
       <c r="F21" t="n">
-        <v>602</v>
+        <v>744</v>
       </c>
       <c r="G21" t="n">
+        <v>171</v>
+      </c>
+      <c r="H21" t="n">
         <v>42</v>
       </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="J21" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="K21" t="n">
-        <v>28</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>第一次打LOL上来就是五排</t>
-        </is>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Uy8jzHE9R</t>
+          <t>https://www.bilibili.com/video/BV1YShJzzErQ</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/bc4467180b4416d4262cf0d1db92b72c328389fe.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/2fb6ca987883d81226a5615cf5b63809813343b2.jpg</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>BV1Uy8jzHE9R</t>
+          <t>BV1YShJzzErQ</t>
         </is>
       </c>
       <c r="Q21" t="n">
         <v>201</v>
       </c>
       <c r="R21" t="n">
-        <v>3493078847458264</v>
+        <v>90418178</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>45869.63783564815</v>
+        <v>45870.52726851852</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>即使知道有传送锚点，外网也热衷于跨海前往夏活地图。</t>
+          <t>互联网挑唆了人与人之间的关系？</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01:19</t>
+          <t>02:16</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>流萤橱晚期患者</t>
+          <t>敖小丙1688</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45869.12627314815</v>
+        <v>45870.41666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>9768</v>
+        <v>9355</v>
       </c>
       <c r="F22" t="n">
-        <v>295</v>
+        <v>1141</v>
       </c>
       <c r="G22" t="n">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="I22" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1vo8kzuE5H</t>
+          <t>https://www.bilibili.com/video/BV1eh8jzwESw</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/650167dda461000eba4f16b6e0837a0b30d92225.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/31d4e432a66b3c299b56734aa3e7ed69221dcfb6.jpg</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>BV1vo8kzuE5H</t>
+          <t>BV1eh8jzwESw</t>
         </is>
       </c>
       <c r="Q22" t="n">
         <v>201</v>
       </c>
       <c r="R22" t="n">
-        <v>480452309</v>
+        <v>3493288665417911</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>45869.6378125</v>
+        <v>45870.53381944444</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>四爱伴侣到底能有多刺激？</t>
+          <t>日语里的“青木”是什么意思？【每天一个生草日语】</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>00:57</t>
+          <t>00:47</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>白菜夹知识</t>
+          <t>生草日语</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45869.17619212963</v>
+        <v>45870.14930555555</v>
       </c>
       <c r="E23" t="n">
-        <v>9447</v>
+        <v>8938</v>
       </c>
       <c r="F23" t="n">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="G23" t="n">
+        <v>210</v>
+      </c>
+      <c r="H23" t="n">
+        <v>29</v>
+      </c>
+      <c r="I23" t="n">
+        <v>63</v>
+      </c>
+      <c r="J23" t="n">
+        <v>33</v>
+      </c>
+      <c r="K23" t="n">
         <v>60</v>
       </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>136</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>84</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1U88kzoE6R</t>
+          <t>https://www.bilibili.com/video/BV1TQ8CzaEZN</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/4f58b6cee01350f5c6ef82eaa3af527b64dad62f.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/a753b2944b800a61c5af870e2d58e2046ef29b4c.jpg</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>BV1U88kzoE6R</t>
+          <t>BV1TQ8CzaEZN</t>
         </is>
       </c>
       <c r="Q23" t="n">
         <v>201</v>
       </c>
       <c r="R23" t="n">
-        <v>1799642155</v>
+        <v>2094698142</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>45869.63777777777</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>高速摄像机：改开后跟国际一比，咋还领先了一个量级！</t>
+          <t>痛到难以走路的传染性疾病！真有那么可怕吗？</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07:17</t>
+          <t>06:40</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>科工洞洞拐</t>
+          <t>整形医生肖一丁</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45869.14173611111</v>
+        <v>45870.45020833334</v>
       </c>
       <c r="E24" t="n">
-        <v>9409</v>
+        <v>8611</v>
       </c>
       <c r="F24" t="n">
-        <v>1097</v>
+        <v>973</v>
       </c>
       <c r="G24" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H24" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I24" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J24" t="n">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV18s8kzwEUV</t>
+          <t>https://www.bilibili.com/video/BV17ChHzHEfk</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/abe0a809e88e42a5345bbdefefddac997410b5bf.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/c923228c8b7f5d21059bc8417bdb7458a70eb967.jpg</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>BV18s8kzwEUV</t>
+          <t>BV17ChHzHEfk</t>
         </is>
       </c>
       <c r="Q24" t="n">
         <v>201</v>
       </c>
       <c r="R24" t="n">
-        <v>1969038632</v>
+        <v>476853952</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>45869.63780092593</v>
+        <v>45870.5337037037</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>武大校友集体行动护校 杨景媛事件引发广泛讨论</t>
+          <t>四天倒泻一年雨！“千年等一回”的北京，已是回不去的曾经</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>00:37</t>
+          <t>03:06</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>小范爱分享吖</t>
+          <t>科学声音</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45869.40428240741</v>
+        <v>45870.13327546296</v>
       </c>
       <c r="E25" t="n">
-        <v>9359</v>
+        <v>8136</v>
       </c>
       <c r="F25" t="n">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J25" t="n">
+        <v>44</v>
+      </c>
+      <c r="K25" t="n">
         <v>12</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>北京暴雨，四天时间里降下了接近一整年的雨量，让这座超级都市暂时陷入汪洋。这到底是偶然发生的天灾，还是气候变化给人类活动敲响警钟？本期内容从“克劳修斯-克拉佩龙方程”出发，硬核解析暴雨的形成原理，带你了解什么是真正的“极端天气”，以及全球变暖、城市热岛效应是如何一步步将我们推向“天气失控”的边缘。</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1KR8Cz8Edh</t>
+          <t>https://www.bilibili.com/video/BV11ph7zJEc3</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/f2d864cb18554613ca708da7dd1e76751f56ab0a.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/7acfe4056eef242b15ec2b61da4b97726e99eefd.jpg</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>BV1KR8Cz8Edh</t>
+          <t>BV11ph7zJEc3</t>
         </is>
       </c>
       <c r="Q25" t="n">
         <v>201</v>
       </c>
       <c r="R25" t="n">
-        <v>3546926356105426</v>
+        <v>355126576</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>45869.63767361111</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>不可思议的喝水公路，满车水倒下去也不积水</t>
+          <t>钓小虎，荒野钓鱼求生第 20 天</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>04:24</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>阿伟科普</t>
+          <t>钓小虎</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45869.14236111111</v>
+        <v>45870.3800462963</v>
       </c>
       <c r="E26" t="n">
-        <v>9326</v>
+        <v>8029</v>
       </c>
       <c r="F26" t="n">
+        <v>351</v>
+      </c>
+      <c r="G26" t="n">
+        <v>35</v>
+      </c>
+      <c r="H26" t="n">
         <v>66</v>
       </c>
-      <c r="G26" t="n">
-        <v>26</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>不可思议的喝水公路，满车水倒下去也不积水</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1bugJz5EGw</t>
+          <t>https://www.bilibili.com/video/BV1gdhHzVEUv</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/5e07c5f75399381a6cee29e9cdcc791d4ee6156f.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/5eee39fb6e3f1549e3970f412f25862672dd2234.jpg</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>BV1bugJz5EGw</t>
+          <t>BV1gdhHzVEUv</t>
         </is>
       </c>
       <c r="Q26" t="n">
         <v>201</v>
       </c>
       <c r="R26" t="n">
-        <v>505168381</v>
+        <v>437503612</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>45869.63780092593</v>
+        <v>45870.53392361111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>禁止废话，斑马为什么不能当坐骑？</t>
+          <t>怎样从零自学建立最独特的水族馆？【达拉斯世界水族馆 下】</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01:23</t>
+          <t>20:01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>潸然说百科</t>
+          <t>沈氏小盗龙</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45869.21839120371</v>
+        <v>45870.14583333334</v>
       </c>
       <c r="E27" t="n">
-        <v>8962</v>
+        <v>7846</v>
       </c>
       <c r="F27" t="n">
-        <v>69</v>
+        <v>875</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="I27" t="n">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>398</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV17NhAzvE2x</t>
+          <t>https://www.bilibili.com/video/BV1jY8CzyEs4</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/82c22a9cf60ea590c116260b26b64756621d8319.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/de97382a41e3f8522d376b0c44a7f15c90a5aee9.jpg</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>BV17NhAzvE2x</t>
+          <t>BV1jY8CzyEs4</t>
         </is>
       </c>
       <c r="Q27" t="n">
         <v>201</v>
       </c>
       <c r="R27" t="n">
-        <v>1440061707</v>
+        <v>526783727</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>45869.6377662037</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>阿干户外，荒野钓鱼求生第 19 天</t>
+          <t>女痛经男痛风，到底谁更痛? 得过的人最有发言权：我比她严重！</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>05:06</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>钓小虎</t>
+          <t>科学大魔王</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45869.39094907408</v>
+        <v>45870.13888888889</v>
       </c>
       <c r="E28" t="n">
-        <v>8855</v>
+        <v>7470</v>
       </c>
       <c r="F28" t="n">
-        <v>360</v>
+        <v>617</v>
       </c>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="H28" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>过去帝王病现在变流行，目标锁定小年轻！痛风为什么爱迎“男”而上？</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Ba8CzLE3i</t>
+          <t>https://www.bilibili.com/video/BV1NihAz5E5s</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/18d3a687eac67c50bafd9831cca072b9ba5d19ea.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/3fc70690a6e046e817050fba601a6e43602a57a1.jpg</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>BV1Ba8CzLE3i</t>
+          <t>BV1NihAz5E5s</t>
         </is>
       </c>
       <c r="Q28" t="n">
         <v>201</v>
       </c>
       <c r="R28" t="n">
-        <v>437503612</v>
+        <v>647940953</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>45869.63767361111</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>为什么喷管是斜的？斜切喷管的妙用</t>
+          <t>选3到7岁幼女为“神”，不能哭笑，脚不沾地，通过32种考验，月经初潮就要退位</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:20</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ASPT-航天科普小组</t>
+          <t>捕月说</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45869.10416666666</v>
+        <v>45870.41666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>8709</v>
+        <v>7336</v>
       </c>
       <c r="F29" t="n">
-        <v>718</v>
+        <v>441</v>
       </c>
       <c r="G29" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I29" t="n">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="J29" t="n">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>在火箭发射的轰鸣声中，很少有人意识到，那道划破长空的炽热尾焰背后，其实隐藏着一场精密的“气流芭蕾”。喷管——这个看似简单的喇叭状部件——正是这场芭蕾的舞台。传统上，它被设计为一个对称的钟形或锥形，力求将燃烧室的高温高压气体以最完美的方式膨胀、加速、排出。然而，工程师们早在上个世纪便开始尝试一种打破对称的“斜切”设计：一侧被“削去”一块的喷管，也就是所谓的“斜切喷管”（scarfed nozzle）。</t>
+          <t>如果以“不能上学”为代价，让你当5到10年的“神”你愿意吗？</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1JJ8qzFEf4</t>
+          <t>https://www.bilibili.com/video/BV1dxbQztEap</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/c4339c156519f16af177dfac1f8c56bc5d98e3fd.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/1f8920a469d3c5d39eacef24469f4bbd59e2f773.jpg</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>BV1JJ8qzFEf4</t>
+          <t>BV1dxbQztEap</t>
         </is>
       </c>
       <c r="Q29" t="n">
         <v>201</v>
       </c>
       <c r="R29" t="n">
-        <v>442706857</v>
+        <v>80900494</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.53383101852</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>禁止废话：为什么不能给热水里尿？涨知识了</t>
+          <t>食草的要广角预警，食肉的要火控聚焦！眼睛的进化实在太卷了！</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>03:01</t>
+          <t>05:01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>省大人的</t>
+          <t>三个老爸实验室吖</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45869.22916666666</v>
+        <v>45870.14208333333</v>
       </c>
       <c r="E30" t="n">
-        <v>8403</v>
+        <v>7141</v>
       </c>
       <c r="F30" t="n">
-        <v>462</v>
+        <v>636</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H30" t="n">
         <v>8</v>
       </c>
       <c r="I30" t="n">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>禁止废话：为什么不能给热水里尿？涨知识了</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Lt8qz9EVS</t>
+          <t>https://www.bilibili.com/video/BV1RnhEzzEru</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/9bc1e087fbfa149420cd16884063e6d1b7a7d775.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/f9d149d7cba00bb113e8bb76e23e7718f26743b2.jpg</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>BV1Lt8qz9EVS</t>
+          <t>BV1RnhEzzEru</t>
         </is>
       </c>
       <c r="Q30" t="n">
         <v>201</v>
       </c>
       <c r="R30" t="n">
-        <v>1508869350</v>
+        <v>301317612</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>45869.6377662037</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>这几个作死习惯你必须改改！</t>
+          <t>不是哥们，这游戏玩家到底经历了什么...</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01:09</t>
+          <t>02:44</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>朝阳医院急诊科魏兵</t>
+          <t>艺才才才</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45869.38541666666</v>
+        <v>45870.16666666666</v>
       </c>
       <c r="E31" t="n">
-        <v>7197</v>
+        <v>6581</v>
       </c>
       <c r="F31" t="n">
-        <v>668</v>
+        <v>1761</v>
       </c>
       <c r="G31" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="I31" t="n">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="J31" t="n">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="K31" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>如果不想被胃病缠上，这几个作死习惯你必须改改！</t>
+          <t>大家玩过少女前线2吗？
+求三连！求三连！求三连！</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1YW8yz6Ejr</t>
+          <t>https://www.bilibili.com/video/BV1dp8UzdE9v</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/2f1571bf64342d40503c962e40184e7010856a72.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/6bb8a1d78e394b599d10a624d688d40012342d18.jpg</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>BV1YW8yz6Ejr</t>
+          <t>BV1dp8UzdE9v</t>
         </is>
       </c>
       <c r="Q31" t="n">
         <v>201</v>
       </c>
       <c r="R31" t="n">
-        <v>1957676131</v>
+        <v>3546659290089817</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>45869.63768518518</v>
+        <v>45870.52751157407</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>女孩子洗丝袜真的会只洗脚尖尖吗？</t>
+          <t>【央视三农×博物】油柑黄皮刺梨……奶茶店的水果我咋都没见过</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01:01</t>
+          <t>04:13</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>知识怪咖苏小妖</t>
+          <t>博物</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45869.42793981481</v>
+        <v>45870.41666666666</v>
       </c>
       <c r="E32" t="n">
-        <v>6575</v>
+        <v>6576</v>
       </c>
       <c r="F32" t="n">
-        <v>298</v>
+        <v>904</v>
       </c>
       <c r="G32" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="I32" t="n">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1De82z6Ea6</t>
+          <t>https://www.bilibili.com/video/BV1za8CzLEhz</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/952acca297c230e1d904d8fcb607f97798111610.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/5cc37d842c97503791f9ba7850cccb5e6bf4bb62.jpg</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>BV1De82z6Ea6</t>
+          <t>BV1za8CzLEhz</t>
         </is>
       </c>
       <c r="Q32" t="n">
         <v>201</v>
       </c>
       <c r="R32" t="n">
-        <v>1426067297</v>
+        <v>50092850</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>45869.63765046297</v>
+        <v>45870.50817129629</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>宋壮壮：人们说城市无聊，但我觉得像在玩游戏</t>
+          <t>紧急提醒这样吃药会要命！</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>35:12</t>
+          <t>02:21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>一席精选</t>
+          <t>医路向前巍子</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45869.2133912037</v>
+        <v>45870.21195601852</v>
       </c>
       <c r="E33" t="n">
-        <v>6469</v>
+        <v>6390</v>
       </c>
       <c r="F33" t="n">
-        <v>336</v>
+        <v>796</v>
       </c>
       <c r="G33" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H33" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="J33" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="K33" t="n">
-        <v>42</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>135</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>紧急提醒:这样吃药会要命！</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1FP8kz1Ebg</t>
+          <t>https://www.bilibili.com/video/BV1G8hnzGE63</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/6744ae1bd6bd39eb3b7f40969fa6e07b16ca1f8d.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/a06f3829a85182a92dbc13712b218c4bf5503c92.jpg</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>BV1FP8kz1Ebg</t>
+          <t>BV1G8hnzGE63</t>
         </is>
       </c>
       <c r="Q33" t="n">
         <v>201</v>
       </c>
       <c r="R33" t="n">
-        <v>26079128</v>
+        <v>520269628</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>45869.6377662037</v>
+        <v>45870.52733796297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025电赛G题，有点复杂</t>
+          <t>美国GPS遭受干扰诱骗，六分仪靠谱吗？此时航海定位该怎么办？</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>28:25</t>
+          <t>08:25</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>我是装B怪</t>
+          <t>李船长笔记</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45869.08333333334</v>
+        <v>45870.45833333334</v>
       </c>
       <c r="E34" t="n">
-        <v>6302</v>
+        <v>6319</v>
       </c>
       <c r="F34" t="n">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="G34" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="I34" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J34" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K34" t="n">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>军事冲突对商船通行带来严峻考验！霍木滋海峡日通行船舶仅百余艘！</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1dM86zPEQS</t>
+          <t>https://www.bilibili.com/video/BV1sM8qzqEAb</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/c1bb305e8d94f17e5f6e909201263b9f8d720fef.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/26f4b5fdeb4dca6f9099ea89226af7086e50451e.jpg</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>BV1dM86zPEQS</t>
+          <t>BV1sM8qzqEAb</t>
         </is>
       </c>
       <c r="Q34" t="n">
         <v>201</v>
       </c>
       <c r="R34" t="n">
-        <v>412440815</v>
+        <v>496070561</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.53369212963</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>为什么hud不能兼容偏光镜？雷总召集工程师开会也解决不了的难题，是什么原理？</t>
+          <t>一个引力场不断波动的宇宙会是什么样的？——异星物理狂想01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>酋知鱼</t>
+          <t>安东尼2001</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45869.45261574074</v>
+        <v>45870.38888888889</v>
       </c>
       <c r="E35" t="n">
-        <v>5844</v>
+        <v>6267</v>
       </c>
       <c r="F35" t="n">
-        <v>372</v>
+        <v>549</v>
       </c>
       <c r="G35" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H35" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I35" t="n">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="J35" t="n">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>《异星物理狂想》
+BY 宇宙智多星——维苏威
+神秘人多里安在物理游戏里卡住没通关，他一气之下搞了个宇宙级难题来考验大卫。
+多里安的用意是：把经典物理实验搬到极端环境下的外星游乐场，让人类用自由落体实验当作放大镜，结合科学的实验思维去探索未知。
+为此，我总结出三个大招：
+第一：怀疑就要动手验证！
+同一高度扔球（Δy=2m），球落地的时间忽快忽慢（t=0.58s→0.53s）
+算出重力加速度g值发生了变化（12→14.2 m/s²）
+那么问题来了，当数据开始打架，究竟是实验测算错误还是宇宙本身发生变化</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV19s82z2EjF</t>
+          <t>https://www.bilibili.com/video/BV1in82znEra</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/e6d7fef6d1dfec9bbfcdad8660aee67cbe37a688.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/581124a925517d338251513612829572a2dd2ef5.jpg</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>BV19s82z2EjF</t>
+          <t>BV1in82znEra</t>
         </is>
       </c>
       <c r="Q35" t="n">
         <v>201</v>
       </c>
       <c r="R35" t="n">
-        <v>356399722</v>
+        <v>342694616</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>45869.63763888889</v>
+        <v>45870.50819444445</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>低密度脂蛋白高“三吃三不吃”</t>
+          <t>禁止废话：同性恋到底是先天还是后天？涨知识了</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>03:04</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>医路向前巍子</t>
+          <t>省大人的</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45869.42361111111</v>
+        <v>45870.22916666666</v>
       </c>
       <c r="E36" t="n">
-        <v>5786</v>
+        <v>5933</v>
       </c>
       <c r="F36" t="n">
-        <v>558</v>
+        <v>348</v>
       </c>
       <c r="G36" t="n">
         <v>23</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="J36" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>低密度脂蛋白高“三吃三不吃”</t>
+          <t>禁止废话：同性恋到底是先天还是后天？涨知识了</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1cN8yzXEHr</t>
+          <t>https://www.bilibili.com/video/BV1bk8qz5EnB</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/35ea82b5801aa5c90021c8ab821cfcf3f426a686.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/1b3670ad1aea9ebb5ef64f7b6235bbb37a71d9bf.jpg</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>BV1cN8yzXEHr</t>
+          <t>BV1bk8qz5EnB</t>
         </is>
       </c>
       <c r="Q36" t="n">
         <v>201</v>
       </c>
       <c r="R36" t="n">
-        <v>520269628</v>
+        <v>1508869350</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>45869.63765046297</v>
+        <v>45870.52726851852</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>重庆卡卡西奋起，柜子coser被暴击！</t>
+          <t>沙漠变成了鱼米之乡,真正的下饭视频</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>02:07</t>
+          <t>01:41</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大毛讲里</t>
+          <t>我和沙漠有个约定</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45869.08908564815</v>
+        <v>45870.37792824074</v>
       </c>
       <c r="E37" t="n">
-        <v>5775</v>
+        <v>5622</v>
       </c>
       <c r="F37" t="n">
-        <v>218</v>
+        <v>967</v>
       </c>
       <c r="G37" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I37" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>真正的下饭视频!超多菜~~~</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV11J8CzWEkL</t>
+          <t>https://www.bilibili.com/video/BV1hdhHzVEhy</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/6c5ae8cc1f08e4e1f5207b386ffeeba5c27d311b.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/53b05fa62856cafee5c1f36cef44fde79846ba8e.jpg</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>BV11J8CzWEkL</t>
+          <t>BV1hdhHzVEhy</t>
         </is>
       </c>
       <c r="Q37" t="n">
         <v>201</v>
       </c>
       <c r="R37" t="n">
-        <v>8433663</v>
+        <v>589154644</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.53393518519</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>还能聊什么？</t>
+          <t>男孩子被“性侵”后会遭遇什么？</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>00:11</t>
+          <t>01:46</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>屑狐狸小课堂</t>
+          <t>知识怪咖苏小妖</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45869.15253472222</v>
+        <v>45870.34052083334</v>
       </c>
       <c r="E38" t="n">
-        <v>5755</v>
+        <v>5332</v>
       </c>
       <c r="F38" t="n">
-        <v>513</v>
+        <v>287</v>
       </c>
       <c r="G38" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I38" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J38" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K38" t="n">
-        <v>107</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1RE8kzNEtz</t>
+          <t>https://www.bilibili.com/video/BV1BZhEz5E7s</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/ef5d304eaf4252e4ffe922f5d5253eca82cc3686.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/22699d09a36b9382557883f2ba18e8e3ec4f4dd8.jpg</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>BV1RE8kzNEtz</t>
+          <t>BV1BZhEz5E7s</t>
         </is>
       </c>
       <c r="Q38" t="n">
         <v>201</v>
       </c>
       <c r="R38" t="n">
-        <v>259154390</v>
+        <v>1426067297</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.53407407407</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>“这种工地，我连夜提桶跑路！”</t>
+          <t>【会员专享】【真实事件】一个暗示了死亡笔记可能真实存在的提问  | 老高与小茉无尾音 | 20221015 |</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01:15</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>深圳卫健委</t>
+          <t>老高与小茉_频道转播</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45869.45833333334</v>
+        <v>45870.14583333334</v>
       </c>
       <c r="E39" t="n">
-        <v>5475</v>
+        <v>4766</v>
       </c>
       <c r="F39" t="n">
-        <v>628</v>
+        <v>68</v>
       </c>
       <c r="G39" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J39" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=EM_tfg0bQvI&amp;list=PLMUs_BF93V5auQ8Bz37OsF4RqpMH38kmc&amp;index=90</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV11k8yz4EF9</t>
+          <t>https://www.bilibili.com/video/BV1R482zLEgy</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/6292bc1b12f97920e6e7833c319196c3d6c78529.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/1fc8398faea8d376dd0aa92aefa98393894bbb65.jpg</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>BV11k8yz4EF9</t>
+          <t>BV1R482zLEgy</t>
         </is>
       </c>
       <c r="Q39" t="n">
         <v>201</v>
       </c>
       <c r="R39" t="n">
-        <v>698057488</v>
+        <v>42332195</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>45869.63762731481</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>树枝可以勾掉手榴弹的插销吗？</t>
+          <t>四大饿人，荒野钓鱼求生我为徐立哥扛大旗，立哥加油，绝地反超他们，立哥加油加油</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01:02</t>
+          <t>00:38</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>小新宇宙</t>
+          <t>钓小虎</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45869.1515625</v>
+        <v>45870.06949074074</v>
       </c>
       <c r="E40" t="n">
-        <v>5335</v>
+        <v>4754</v>
       </c>
       <c r="F40" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
         <v>2</v>
       </c>
-      <c r="I40" t="n">
-        <v>27</v>
-      </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3228,211 +3260,207 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV15J8kzvEBK</t>
+          <t>https://www.bilibili.com/video/BV1Q4hEzvEtf</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/b03e218d511153f661fb3e5e8068772c7e03731c.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/c6bb10d7e382e131b5dfb080e6c41c9282f8217e.jpg</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>BV15J8kzvEBK</t>
+          <t>BV1Q4hEzvEtf</t>
         </is>
       </c>
       <c r="Q40" t="n">
         <v>201</v>
       </c>
       <c r="R40" t="n">
-        <v>1397337579</v>
+        <v>437503612</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.50834490741</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>中医的现代病特色疗法-人造昼夜节律</t>
+          <t>8月1日果冻粉直接倒进泳池，会变成一个大号果冻吗？</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>06:12</t>
+          <t>00:42</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛博老中医-毕翔</t>
+          <t>全球Dou知道</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45869.13958333333</v>
+        <v>45870.44716435186</v>
       </c>
       <c r="E41" t="n">
-        <v>5203</v>
+        <v>4487</v>
       </c>
       <c r="F41" t="n">
-        <v>592</v>
+        <v>31</v>
       </c>
       <c r="G41" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>248</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Sx8kz8EWf</t>
+          <t>https://www.bilibili.com/video/BV1jChHzHEM2</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/8bcef69dd53be10e73d16dec3a25a53b5f2c3f6a.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/44dc3e7674025849e4b07805f07d90a6f4f56acb.jpg</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>BV1Sx8kz8EWf</t>
+          <t>BV1jChHzHEM2</t>
         </is>
       </c>
       <c r="Q41" t="n">
         <v>201</v>
       </c>
       <c r="R41" t="n">
-        <v>142111</v>
+        <v>3546661857003929</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>45869.63780092593</v>
+        <v>45870.5337037037</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>左手和右手，为何永远无法重合？（第二期）</t>
+          <t>【原始技术】织草垫（第93弹）[澳洲小哥徒手制造，简直是我的世界和饥荒真人版，现代版鲁滨逊漂流记]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>04:57</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>假如-if</t>
+          <t>A6驾照</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45869.25145833333</v>
+        <v>45870.16835648148</v>
       </c>
       <c r="E42" t="n">
-        <v>5084</v>
+        <v>4404</v>
       </c>
       <c r="F42" t="n">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="G42" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I42" t="n">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K42" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>对称与不对称：宇宙看似对称，却在微观层面偏向一方，这种不对称可能决定了我们存在的方式。
-偶然与必然：生命的手性是偶然选择还是宇宙法则的必然结果？
-他者与自我：镜像生命的可能性挑战我们对“生命”本质的理解。
-微观决定宏观：极微弱的物理偏差，或许造就了整个生命系统。
-生命的偏向，可能不是偶然，而是宇宙深层不对称性的必然映现；理解手性，也许是理解我们为何存在的起点。</t>
+          <t>https://youtu.be/ebgrsldLIvI?si=V2-Rq7iznuK65gpz</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1P18yzxEtT</t>
+          <t>https://www.bilibili.com/video/BV1jih7z6EAd</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/853e854c42d5c314a745c5f4b301d1dc3141738b.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/0917e25439ee838fdab30c060d49cd698d8be662.jpg</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>BV1P18yzxEtT</t>
+          <t>BV1jih7z6EAd</t>
         </is>
       </c>
       <c r="Q42" t="n">
         <v>201</v>
       </c>
       <c r="R42" t="n">
-        <v>275750862</v>
+        <v>43837937</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>45869.63775462963</v>
+        <v>45870.52748842593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>小狗这么可爱当然要养啊！毛孩子上床的隐藏危机是什么？</t>
+          <t>世界上什么枕头最舒服？</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>03:20</t>
+          <t>00:21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>nagi真的很文静</t>
+          <t>屑狐狸小课堂</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45869.42037037037</v>
+        <v>45870.08537037037</v>
       </c>
       <c r="E43" t="n">
-        <v>5051</v>
+        <v>4366</v>
       </c>
       <c r="F43" t="n">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="G43" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H43" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="J43" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3441,288 +3469,278 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV11c8yzxE21</t>
+          <t>https://www.bilibili.com/video/BV1Vmh7zAEwy</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/70d9264af4bfdc5bb6bccdb36699858d6e306c0b.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/f40dea014f87d0666a67c05df02f7ce2a5349c4c.jpg</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>BV11c8yzxE21</t>
+          <t>BV1Vmh7zAEwy</t>
         </is>
       </c>
       <c r="Q43" t="n">
         <v>201</v>
       </c>
       <c r="R43" t="n">
-        <v>495792263</v>
+        <v>259154390</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>45869.63765046297</v>
+        <v>45870.50833333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>学医的就不告诉你 20 元以内的宝藏好物</t>
+          <t>男生去多少岁不能举起？</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>00:45</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>一碗洗发水</t>
+          <t>屑狐狸小课堂</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45869.23707175926</v>
+        <v>45870.32979166666</v>
       </c>
       <c r="E44" t="n">
-        <v>4951</v>
+        <v>4235</v>
       </c>
       <c r="F44" t="n">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="G44" t="n">
+        <v>28</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>42</v>
+      </c>
+      <c r="J44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="n">
-        <v>5</v>
-      </c>
-      <c r="I44" t="n">
-        <v>17</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>搞笑段子，便宜的宝藏好物</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV16Q8yznEgs</t>
+          <t>https://www.bilibili.com/video/BV18dhJzvEUE</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/b9e0629c9b6ad99189cd0d0c699d77350e1264d4.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/e9773a0357f701edba26ce70194c9f612425c85a.jpg</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>BV16Q8yznEgs</t>
+          <t>BV18dhJzvEUE</t>
         </is>
       </c>
       <c r="Q44" t="n">
         <v>201</v>
       </c>
       <c r="R44" t="n">
-        <v>110834289</v>
+        <v>259154390</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>45869.6377662037</v>
+        <v>45870.53413194444</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[数字沙龙③]数字的解构：666、2333与114514，你眼中的数字何时才是一个真正的“数”？</t>
+          <t>只需30秒，你竟然建造了卢浮宫玻璃金字塔</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>01:25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>宋宁世Neise</t>
+          <t>阿鹏哥哥探结构</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45869.39236111111</v>
+        <v>45870.13258101852</v>
       </c>
       <c r="E45" t="n">
-        <v>4594</v>
+        <v>4012</v>
       </c>
       <c r="F45" t="n">
-        <v>214</v>
+        <v>354</v>
       </c>
       <c r="G45" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="J45" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K45" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>本期是上周短篇“精确数错觉”的完整版，我们用一个全新的角度来剖析“数字”这个概念，或者说，分析一下我们熟知的“阿拉伯数字”这套系统究竟是如何构造的，它的背后又是否存在某种固有的缺陷？
-参考
-短篇-精确数错觉：BV1U6gsztEBH
-伪精确陷阱：BV1nGKXz2EFA
-“数字沙龙”系列
-数字的比较：BV141QgYyEDL
-数字与评分：BV1P42hYSEPW</t>
+          <t>只需30秒，你竟然建造了卢浮宫玻璃金字塔</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1e98BzREnR</t>
+          <t>https://www.bilibili.com/video/BV1TRh7ztEXa</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/12963f79e3289ab8d62a7cfb57023e4f274333bc.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/9d343ac3324e3ebd9c17c41d0cda598ce81153c2.jpg</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>BV1e98BzREnR</t>
+          <t>BV1TRh7ztEXa</t>
         </is>
       </c>
       <c r="Q45" t="n">
         <v>201</v>
       </c>
       <c r="R45" t="n">
-        <v>1407594999</v>
+        <v>3546575620016315</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>45869.63767361111</v>
+        <v>45870.50832175926</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>你听到的 Yanny 还是 Laurel ？</t>
+          <t>数学家解密自然界中不断重复出现的图形纹路，混沌中的秩序</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01:04</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>固执的DANIEL</t>
+          <t>万物深蓝</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45869.48194444444</v>
+        <v>45870.17753472222</v>
       </c>
       <c r="E46" t="n">
-        <v>4395</v>
+        <v>3624</v>
       </c>
       <c r="F46" t="n">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="G46" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="H46" t="n">
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K46" t="n">
-        <v>76</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>你听到的 Yanny 还是 Laurel ？</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Uv8yzwE1G</t>
+          <t>https://www.bilibili.com/video/BV1k481z4EWT</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/a75f64c9b9ef0079e3d31766763e3b120af00ec2.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/b36ba2f95c592a65c7dd091a7a6c55d6e9b5790f.jpg</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>BV1Uv8yzwE1G</t>
+          <t>BV1k481z4EWT</t>
         </is>
       </c>
       <c r="Q46" t="n">
         <v>201</v>
       </c>
       <c r="R46" t="n">
-        <v>7955996</v>
+        <v>224836714</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>45869.63761574074</v>
+        <v>45870.52746527778</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>手搓天文望远镜</t>
+          <t>离谱！宫外孕女孩“家属”竟是三位陌生男友！【急症故事会】</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>00:33</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>知名的艺术家</t>
+          <t>nagi真的很文静</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45869.06841435185</v>
+        <v>45870.41666666666</v>
       </c>
       <c r="E47" t="n">
-        <v>4335</v>
+        <v>3461</v>
       </c>
       <c r="F47" t="n">
-        <v>614</v>
+        <v>316</v>
       </c>
       <c r="G47" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H47" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="J47" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="K47" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3731,561 +3749,548 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1H48CzUEHj</t>
+          <t>https://www.bilibili.com/video/BV1FD8kz5EKs</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/b0de0bdf37da5497e5e7b286c13c6a11958a8f49.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/b0639bcc05f67f6c1d11cbeaeddac9a21b4a5384.jpg</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>BV1H48CzUEHj</t>
+          <t>BV1FD8kz5EKs</t>
         </is>
       </c>
       <c r="Q47" t="n">
         <v>201</v>
       </c>
       <c r="R47" t="n">
-        <v>520684952</v>
+        <v>495792263</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>45869.63783564815</v>
+        <v>45870.50817129629</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>减肥时蛋白质这样吃，瘦得更快还不饿！</t>
+          <t>一败再败，洪森不甘心失败：晚上10点，柬军敢死队冲锋却遭遇陷阱</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>02:19</t>
+          <t>04:29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>营养师顾中一</t>
+          <t>丁点科普</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45869.5</v>
+        <v>45870.21922453704</v>
       </c>
       <c r="E48" t="n">
-        <v>4321</v>
+        <v>3315</v>
       </c>
       <c r="F48" t="n">
-        <v>351</v>
+        <v>63</v>
       </c>
       <c r="G48" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>减肥时蛋白质这样吃，瘦得更快还不饿！</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Ck8yz4E31</t>
+          <t>https://www.bilibili.com/video/BV1dnhnz7EZG</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/ea1b697ffc291cca5995b5533d22a49713ebf869.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/f3531dfb5d850179e18ad4ad3a7a90090cd3ff9f.jpg</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>BV1Ck8yz4E31</t>
+          <t>BV1dnhnz7EZG</t>
         </is>
       </c>
       <c r="Q48" t="n">
         <v>201</v>
       </c>
       <c r="R48" t="n">
-        <v>387460933</v>
+        <v>3546822490458226</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>45869.63760416667</v>
+        <v>45870.52731481481</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>储氢不是“脱裤子放X”，揭秘中国盐穴工程</t>
+          <t>大家好，我没有死，我去爬山了</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>03:37</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>科学声音</t>
+          <t>LUG鹿鸽</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45869.17012731481</v>
+        <v>45870.42135416667</v>
       </c>
       <c r="E49" t="n">
-        <v>4260</v>
+        <v>3266</v>
       </c>
       <c r="F49" t="n">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="G49" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H49" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I49" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J49" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K49" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>氢气那么“活跃”，储存在地下真的安全吗？中国常州“大规模盐穴储氢”工程开工——看中国工程师用“笨办法”挖出巨型天然盐穴，解决氢能储存的世界级难题。</t>
+          <t>有段时间没更视频了，接下来会高产一小段时间</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Cz8kzDEZE</t>
+          <t>https://www.bilibili.com/video/BV1xthHzaEuB</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/33fca568a50d767d59f3992c1f2a7f448e4779ea.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/4a08ef6d8e99ab540467294b8f6a1fd91e3563cd.jpg</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>BV1Cz8kzDEZE</t>
+          <t>BV1xthHzaEuB</t>
         </is>
       </c>
       <c r="Q49" t="n">
         <v>201</v>
       </c>
       <c r="R49" t="n">
-        <v>355126576</v>
+        <v>470023583</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.53378472223</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>日语里的“赤木”是什么意思？【每天一个生草日语】</t>
+          <t>灰丝悄悄逆袭的底层研究</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>00:59</t>
+          <t>01:05</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>生草日语</t>
+          <t>白菜夹知识</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45869.14930555555</v>
+        <v>45870.13833333334</v>
       </c>
       <c r="E50" t="n">
-        <v>3744</v>
+        <v>2895</v>
       </c>
       <c r="F50" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G50" t="n">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
         <v>11</v>
       </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV17NhAzvEfP</t>
+          <t>https://www.bilibili.com/video/BV1pxh7z7EQj</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/2aede21673d59c1f7704dc14e21a9942c5b19ab5.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/7d9720e25ebe45de9f438ea626bd3d0391383004.jpg</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>BV17NhAzvEfP</t>
+          <t>BV1pxh7z7EQj</t>
         </is>
       </c>
       <c r="Q50" t="n">
         <v>201</v>
       </c>
       <c r="R50" t="n">
-        <v>2094698142</v>
+        <v>1799642155</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>黄埔课堂开课:《手搓移动空调》</t>
+          <t>被迫来华出差，48小时后直呼不想走？葡萄牙博主带偏见入京全程痛骂西媒，直呼：这是BBC口中的黑暗中国？</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01:24</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>电工鸭师傅</t>
+          <t>啸风听雷</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45869.08342592593</v>
+        <v>45870.12646990741</v>
       </c>
       <c r="E51" t="n">
-        <v>3729</v>
+        <v>2885</v>
       </c>
       <c r="F51" t="n">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="G51" t="n">
+        <v>7</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+      <c r="I51" t="n">
         <v>5</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>2</v>
       </c>
-      <c r="I51" t="n">
-        <v>176</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3</v>
-      </c>
       <c r="K51" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1WJ8CzWEsV</t>
+          <t>https://www.bilibili.com/video/BV1PchEzWE4d</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/f2885a9bf5d3b1f5b5cd1b5657a04dc17448840c.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/3636b2dd7ee110e310207c3e0dd0e0e0ea232d65.jpg</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>BV1WJ8CzWEsV</t>
+          <t>BV1PchEzWE4d</t>
         </is>
       </c>
       <c r="Q51" t="n">
         <v>201</v>
       </c>
       <c r="R51" t="n">
-        <v>3546857955396504</v>
+        <v>1002851110</v>
       </c>
       <c r="S51" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.50832175926</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>释永信（第一回）：落魄少年投古刹，劫后残僧守山门</t>
+          <t>8个月小排畸发现羊膜束带，宝宝手指已经被缠断了</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>00:54</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>回到2049</t>
+          <t>协和手足外科陈江海</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45869.5</v>
+        <v>45870.125</v>
       </c>
       <c r="E52" t="n">
-        <v>3494</v>
+        <v>2797</v>
       </c>
       <c r="F52" t="n">
-        <v>535</v>
+        <v>96</v>
       </c>
       <c r="G52" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H52" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>311</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>20</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>初入少林寺的释永信看到的是一番怎样的景象？少林寺又如何迎来命运的转机？</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV19y8CzTELw</t>
+          <t>https://www.bilibili.com/video/BV13jhczJEMj</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/14c5ead9c4cf3c7a9be2cd7d674cfa70c0fa95d7.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/adead79f9fd638c60e72fdbfeeeb3f3a90f39145.jpg</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>BV19y8CzTELw</t>
+          <t>BV13jhczJEMj</t>
         </is>
       </c>
       <c r="Q52" t="n">
         <v>201</v>
       </c>
       <c r="R52" t="n">
-        <v>58617276</v>
+        <v>1343087903</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>45869.63760416667</v>
+        <v>45870.50832175926</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>全韩国都在报道！中国司机肖波挽救韩国游客！</t>
+          <t>减肥医生眼里的零食</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01:03</t>
+          <t>05:06</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>爱吃爱吃爱吃不胖</t>
+          <t>健康减重韩医生</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45869.33803240741</v>
+        <v>45870.05248842593</v>
       </c>
       <c r="E53" t="n">
-        <v>2904</v>
+        <v>2710</v>
       </c>
       <c r="F53" t="n">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="K53" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>减肥医生眼里的零食</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1cN8yzXEyt</t>
+          <t>https://www.bilibili.com/video/BV1APhEzHEEP</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/cf99bee7723de98d293ba7f3fe9d8c2a1357279e.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/bc906e3b305a413fc95c4249cc392a426e44b35b.jpg</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>BV1cN8yzXEyt</t>
+          <t>BV1APhEzHEEP</t>
         </is>
       </c>
       <c r="Q53" t="n">
         <v>201</v>
       </c>
       <c r="R53" t="n">
-        <v>1806048126</v>
+        <v>441090240</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>45869.6377199074</v>
+        <v>45870.50835648148</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>犯罪造成的潜在的惩罚是否合理？</t>
+          <t>如何更好的预防胃食管反流？</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>04:40</t>
+          <t>01:21</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kerry哲学</t>
+          <t>朝阳医院急诊科魏兵</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45869.15972222222</v>
+        <v>45870.38888888889</v>
       </c>
       <c r="E54" t="n">
-        <v>2827</v>
+        <v>2670</v>
       </c>
       <c r="F54" t="n">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="G54" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>犯罪造成的潜在的惩罚是否合理？
-素材选自Wireless Philosophy</t>
+          <t>为什么现在越来越多的人出现胃食管返流？</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1cRgpz3EGT</t>
+          <t>https://www.bilibili.com/video/BV1Nz8yz8Eup</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/b94038902273638681a12878644373db21dc3af1.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/a91ab44baef7fe25cb61217f3b5161af03b9dd99.jpg</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>BV1cRgpz3EGT</t>
+          <t>BV1Nz8yz8Eup</t>
         </is>
       </c>
       <c r="Q54" t="n">
         <v>201</v>
       </c>
       <c r="R54" t="n">
-        <v>486316493</v>
+        <v>1957676131</v>
       </c>
       <c r="S54" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.50819444445</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>【回形针PaperClip补档】Vol.131 为什么拍电影要用斯坦尼康？</t>
+          <t>医生可以有意地伤害病人吗？</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:32</t>
+          <t>03:09</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>正经の阿白</t>
+          <t>Kerry哲学</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45869.12723379629</v>
+        <v>45870.16319444445</v>
       </c>
       <c r="E55" t="n">
-        <v>2697</v>
+        <v>2638</v>
       </c>
       <c r="F55" t="n">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
@@ -4295,324 +4300,326 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>医生可以有意地伤害病人吗？
+素材选自Wireless Philosophy</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1eo8kzuE6i</t>
+          <t>https://www.bilibili.com/video/BV1BZgpzMEjc</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/c73098b43c1d87af25e35aaaf5d9ec55bcc4643b.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/716f8f6a344b8ffa09cff3cff81e1feaeff666aa.jpg</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>BV1eo8kzuE6i</t>
+          <t>BV1BZgpzMEjc</t>
         </is>
       </c>
       <c r="Q55" t="n">
         <v>201</v>
       </c>
       <c r="R55" t="n">
-        <v>617228635</v>
+        <v>486316493</v>
       </c>
       <c r="S55" s="2" t="n">
-        <v>45869.6378125</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>预警：新一轮4天降雨准备，有大暴雨，台风竹节草低压路径大变。</t>
+          <t>减肥太快，一坨肚皮怎么去除</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01:28</t>
+          <t>01:07</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>深度气象</t>
+          <t>古斯特科普</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45869.13491898148</v>
+        <v>45870.26940972222</v>
       </c>
       <c r="E56" t="n">
-        <v>2669</v>
+        <v>2632</v>
       </c>
       <c r="F56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>预警：新一轮4天降雨准备，有大暴雨，台风竹节草低压路径大变。</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1eZ8kzBEHF</t>
+          <t>https://www.bilibili.com/video/BV1ufhJzYEJH</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/01807f088d9f89e5294be8d49144351e4706377f.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/8b2357ca3102b59b829abb081eb750e383f36118.jpg</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>BV1eZ8kzBEHF</t>
+          <t>BV1ufhJzYEJH</t>
         </is>
       </c>
       <c r="Q56" t="n">
         <v>201</v>
       </c>
       <c r="R56" t="n">
-        <v>3546933540948503</v>
+        <v>280745595</v>
       </c>
       <c r="S56" s="2" t="n">
-        <v>45869.63780092593</v>
+        <v>45870.534375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025电赛D题，直接命中！</t>
+          <t>HK输了？别急！交锋才刚刚开始，大戏在后面！复盘1987-2025:一部娃哈哈股权变迁史和背后的改革密码</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20:28</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>我是装B怪</t>
+          <t>老猪解读</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45869.08333333334</v>
+        <v>45870.44696759259</v>
       </c>
       <c r="E57" t="n">
-        <v>2599</v>
+        <v>2568</v>
       </c>
       <c r="F57" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="G57" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K57" t="n">
-        <v>94</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1jH8qzZEmx</t>
+          <t>https://www.bilibili.com/video/BV1J6hHzWEjG</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/8b255cbf966f58902646691b46e08b74b295ad6b.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/3069f766997ee56a10d1333b608e56ae30a39f21.jpg</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>BV1jH8qzZEmx</t>
+          <t>BV1J6hHzWEjG</t>
         </is>
       </c>
       <c r="Q57" t="n">
         <v>201</v>
       </c>
       <c r="R57" t="n">
-        <v>412440815</v>
+        <v>622929161</v>
       </c>
       <c r="S57" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.53371527778</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025电赛F题，比较简单</t>
+          <t>49铟到56钡</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>01:06</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>我是装B怪</t>
+          <t>浩科ASMR</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45869.08333333334</v>
+        <v>45870.27612268519</v>
       </c>
       <c r="E58" t="n">
-        <v>2579</v>
+        <v>2476</v>
       </c>
       <c r="F58" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="G58" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H58" t="n">
+        <v>28</v>
+      </c>
+      <c r="I58" t="n">
+        <v>24</v>
+      </c>
+      <c r="J58" t="n">
+        <v>6</v>
+      </c>
+      <c r="K58" t="n">
         <v>1</v>
       </c>
-      <c r="I58" t="n">
-        <v>12</v>
-      </c>
-      <c r="J58" t="n">
-        <v>10</v>
-      </c>
-      <c r="K58" t="n">
-        <v>66</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1AX8zzLEfh</t>
+          <t>https://www.bilibili.com/video/BV1WshJzdEa5</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/adadb2decb1dd66dd3f7b4f7691fdcfeb02a57e2.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/6f157d023e79ed7a0ed8e83b715ee1a368a8dac8.jpg</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>BV1AX8zzLEfh</t>
+          <t>BV1WshJzdEa5</t>
         </is>
       </c>
       <c r="Q58" t="n">
         <v>201</v>
       </c>
       <c r="R58" t="n">
-        <v>412440815</v>
+        <v>3546924422531539</v>
       </c>
       <c r="S58" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.53435185185</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>八上物理—汽化和液化</t>
+          <t>生物节律最早是由氧气带来的吗？【智人组会】</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>50:14</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>跟着强哥学物理</t>
+          <t>智人丰容中心Funstaff</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45869.1228587963</v>
+        <v>45870.14583333334</v>
       </c>
       <c r="E59" t="n">
-        <v>2578</v>
+        <v>2473</v>
       </c>
       <c r="F59" t="n">
-        <v>143</v>
+        <v>418</v>
       </c>
       <c r="G59" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H59" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I59" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J59" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>生物节律在演化上是怎么起源的？这篇论文认为它最早来自于大氧化事件，由于早期光合作用者白天光合作用产生氧气，晚上又消耗氧气，导致当时的生物演化出了昼夜周期性变化的抗氧化相关的酶，然后这种分子节律逐渐关联到了其它生命活动中去，便有了昼夜节律
+PS：关于Western Blotting的部分我再补充一下，现在常用的WB体系当中，使用的十二烷基磺酸钠基本上可以认为能够给所有种类的蛋白质都带上一样的电荷量，所以跑胶的时候驱动蛋白质分离的主要就是蛋白质的质量（体型）差异。</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1hP8CzeEGN</t>
+          <t>https://www.bilibili.com/video/BV16189zjEX8</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/f337e4456189254175de3e061c10732b2ab94795.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/fd70f743ec4ed8527009de493dcf5073c9e20a1e.jpg</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>BV1hP8CzeEGN</t>
+          <t>BV16189zjEX8</t>
         </is>
       </c>
       <c r="Q59" t="n">
         <v>201</v>
       </c>
       <c r="R59" t="n">
-        <v>1256569002</v>
+        <v>3546933576600422</v>
       </c>
       <c r="S59" s="2" t="n">
-        <v>45869.6378125</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>他为医学献出了自己的生命</t>
+          <t>怎样复活冷冻的仓鼠</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01:28</t>
+          <t>01:15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4621,25 +4628,25 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45869.04503472222</v>
+        <v>45870.15859953704</v>
       </c>
       <c r="E60" t="n">
-        <v>2540</v>
+        <v>2264</v>
       </c>
       <c r="F60" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -4651,18 +4658,18 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1t58CzoEuF</t>
+          <t>https://www.bilibili.com/video/BV1Evh7z3E7k</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/5520fbbb7fefac292e09d190e08aeabbd0de7b8f.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/d386c34ba32e85df4ccbde7fa942f583955a354d.jpg</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>BV1t58CzoEuF</t>
+          <t>BV1Evh7z3E7k</t>
         </is>
       </c>
       <c r="Q60" t="n">
@@ -4672,1013 +4679,1026 @@
         <v>1397337579</v>
       </c>
       <c r="S60" s="2" t="n">
-        <v>45869.63784722222</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>这次支持俄军出兵，四国突然动手：一旦成功我国西部面临全面威胁</t>
+          <t>左手枪杆子，右手钱袋子：越南军队经商有多疯狂？</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04:07</t>
+          <t>20:56</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>丁点科普</t>
+          <t>老莫讲宇宙</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45869.00895833333</v>
+        <v>45870.3421875</v>
       </c>
       <c r="E61" t="n">
-        <v>2527</v>
+        <v>2159</v>
       </c>
       <c r="F61" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G61" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>左手枪杆子，右手钱袋子：越南军队经商有多疯狂</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Qj86zZEn1</t>
+          <t>https://www.bilibili.com/video/BV1ewhJzrEyj</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/c45adb9a267207a77921f4b8e1e19baf09aa7961.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/eefe96b6c042471aef5e243f1443afd65222947d.jpg</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>BV1Qj86zZEn1</t>
+          <t>BV1ewhJzrEyj</t>
         </is>
       </c>
       <c r="Q61" t="n">
         <v>201</v>
       </c>
       <c r="R61" t="n">
-        <v>3546822490458226</v>
+        <v>1703465813</v>
       </c>
       <c r="S61" s="2" t="n">
-        <v>45869.6378587963</v>
+        <v>45870.5340625</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>当基金会SCP的所有收容物想碰瓷孙悟空时</t>
+          <t>【神奇血液】过敏元凶、爆破工兵--嗜碱性粒细胞战力介绍</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>00:14</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>知识科普者</t>
+          <t>江湖郎中尹博</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45869.2734837963</v>
+        <v>45870.36030092592</v>
       </c>
       <c r="E62" t="n">
-        <v>2524</v>
+        <v>2143</v>
       </c>
       <c r="F62" t="n">
-        <v>682</v>
+        <v>88</v>
       </c>
       <c r="G62" t="n">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I62" t="n">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K62" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>在《西游记》中，对菩萨来说，一切存在的本质即为虚幻，所谓的现实本质上在菩萨眼中都是不存在的，底层现实中任何数量的叠加都无法到达菩萨的层次。为了更好地理解这一概念，可以考虑这样一个事实：从0维实数空间到所有数学空间的所有层次最终都可以通过将较小的事物相叠加来建立联系，同样也可以被拆解为这些较小的组成部分。例如，一个具有不可达基数数量维度的数学空间可以被还原为组成它的单个元素（每个都是一个零维点）。同样的原理也可以在Tychonoff立方体中看到：设单位区间为 [0,1]（一个一维对象），再给定一个任意的基数</t>
+          <t>在过敏原导致过敏疾病的过程中，嗜碱性粒细胞是血管中关键的一种白细胞，他的功能调控和发育情况是什么样的呢？</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1vJ7VzZEZN</t>
+          <t>https://www.bilibili.com/video/BV1YThJzMEym</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/d4b69dc4df6d9e6933cbc022dee0e5453b2bb508.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/63669b3a67d31c1f649c52e26ba469a731a822e6.jpg</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>BV1vJ7VzZEZN</t>
+          <t>BV1YThJzMEym</t>
         </is>
       </c>
       <c r="Q62" t="n">
         <v>201</v>
       </c>
       <c r="R62" t="n">
-        <v>216991726</v>
+        <v>1891545091</v>
       </c>
       <c r="S62" s="2" t="n">
-        <v>45869.63774305556</v>
+        <v>45870.53399305556</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>销售量激增1000%，500美元一台半年就回本？中国制造“泳池清洁机器人”在欧美卖疯了！</t>
+          <t>其实人类的肋骨与胸骨是通过这种软骨结构来连接的</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>01:19</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>星球官方号</t>
+          <t>无言良师</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45869.04166666666</v>
+        <v>45870.375</v>
       </c>
       <c r="E63" t="n">
-        <v>2466</v>
+        <v>2093</v>
       </c>
       <c r="F63" t="n">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="G63" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H63" t="n">
         <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>销售量激增1000%，500美元一台半年就回本？中国制造“泳池清洁机器人”在欧美卖疯了！
-纪录中国的每一次科技进步！
-感谢您的每一次点赞与关注</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV12ghwzGEWr</t>
+          <t>https://www.bilibili.com/video/BV1wfhwzBEtb</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/876efcea3ef8598a8bb7ddb629fbb6ac204fef63.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/93530722067694f84731d2e4889b9ec50ec77ce7.jpg</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>BV12ghwzGEWr</t>
+          <t>BV1wfhwzBEtb</t>
         </is>
       </c>
       <c r="Q63" t="n">
         <v>201</v>
       </c>
       <c r="R63" t="n">
-        <v>481237760</v>
+        <v>285860095</v>
       </c>
       <c r="S63" s="2" t="n">
-        <v>45869.63784722222</v>
+        <v>45870.50820601852</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>一个男女生都要懂的种草莓冷知识！</t>
+          <t>事实告诉我们，已经到了重新审视中国长期秉持隐忍外交策略的时候</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>01:09</t>
+          <t>05:10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>白菜夹知识</t>
+          <t>包明说</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45869.07954861111</v>
+        <v>45870.04274305556</v>
       </c>
       <c r="E64" t="n">
-        <v>2452</v>
+        <v>2093</v>
       </c>
       <c r="F64" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I64" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K64" t="n">
-        <v>28</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>兰德智库的这份报告还特别强调要防范俄罗斯和朝鲜的核反击，言下之意是，可以考虑攻击中国，但不要去招惹俄罗斯和朝鲜</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1sn8CzXEg4</t>
+          <t>https://www.bilibili.com/video/BV1wghEz7En8</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/c5c10a59e631e15cfc307a789d4c53f5c5ca85ca.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/9d5e06a6185a14ec607a57ea9e92aaccf3e9aef1.jpg</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>BV1sn8CzXEg4</t>
+          <t>BV1wghEz7En8</t>
         </is>
       </c>
       <c r="Q64" t="n">
         <v>201</v>
       </c>
       <c r="R64" t="n">
-        <v>1799642155</v>
+        <v>1048038251</v>
       </c>
       <c r="S64" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.50835648148</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>靠声音竟然真能悬浮起来！这就回去练狮吼功！</t>
+          <t>福建舰电磁弹射效率惊人！歼-15T短距起飞，阴影面积由大变小</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>02:49</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>皮卡悠</t>
+          <t>杜文龙</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45869.50347222222</v>
+        <v>45870.45239583333</v>
       </c>
       <c r="E65" t="n">
-        <v>2432</v>
+        <v>2068</v>
       </c>
       <c r="F65" t="n">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="G65" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H65" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I65" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="J65" t="n">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>7</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>磁悬浮我们都见过，但是声悬浮你听说过吗？依靠超声波也可以把轻小物体悬浮在半空！这是一个开源项目，你在家也可以轻松复刻。</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1BQ8kzkEkt</t>
+          <t>https://www.bilibili.com/video/BV17rhHzXE7h</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/a752efdce55121473a1f23246d985d314d304245.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/9bdce2e7addd4199e76bf57bc9a55bb16a8f49b9.jpg</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>BV1BQ8kzkEkt</t>
+          <t>BV17rhHzXE7h</t>
         </is>
       </c>
       <c r="Q65" t="n">
         <v>201</v>
       </c>
       <c r="R65" t="n">
-        <v>102886790</v>
+        <v>3546604638308823</v>
       </c>
       <c r="S65" s="2" t="n">
-        <v>45869.63760416667</v>
+        <v>45870.50814814815</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>【这是高手】三分钟小儿推拿操作流程，行家一出手，就知有没有，干货视频收藏好，8月份会请马哥来南昌做公益分享</t>
+          <t>【男生慎入】为什么女生夏天爱穿“过膝袜”？</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>01:45</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>推拿张叫兽</t>
+          <t>房房别闹</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45869.2247337963</v>
+        <v>45870.38640046296</v>
       </c>
       <c r="E66" t="n">
-        <v>2407</v>
+        <v>2041</v>
       </c>
       <c r="F66" t="n">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="G66" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H66" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I66" t="n">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="J66" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>【这是高手】三分钟小儿推拿操作流程，行家一出手，就知有没有，干货视频收藏好，8月份会请马哥来南昌做公益分享</t>
+          <t>【男生慎入】为什么女生夏天爱穿“过膝袜”？</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1JK8kz5Eaa</t>
+          <t>https://www.bilibili.com/video/BV1qyhHzDEbu</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/37cb020719c09c2f47603f0a21d75f6604a73b1a.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/d80ba989d4df44f20bb7348e368478d511fb91a5.jpg</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>BV1JK8kz5Eaa</t>
+          <t>BV1qyhHzDEbu</t>
         </is>
       </c>
       <c r="Q66" t="n">
         <v>201</v>
       </c>
       <c r="R66" t="n">
-        <v>3461562981419705</v>
+        <v>413417470</v>
       </c>
       <c r="S66" s="2" t="n">
-        <v>45869.6377662037</v>
+        <v>45870.50819444445</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>飞龙在天的奠基：兽脚类腕关节的重组早于鸟类飞行的起源</t>
+          <t>见过所有稀土元素吗？一次性看ai切个爽！asmr</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07:25</t>
+          <t>02:18</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>少康1104</t>
+          <t>一个很懒的书数</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45869.45041666667</v>
+        <v>45870.03804398148</v>
       </c>
       <c r="E67" t="n">
-        <v>2359</v>
+        <v>2036</v>
       </c>
       <c r="F67" t="n">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="G67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K67" t="n">
         <v>2</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>飞龙在天的奠基：兽脚类腕关节的重组早于鸟类飞行的起源</t>
+          <t>点个赞吧家人们~</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV11k82zNEMv</t>
+          <t>https://www.bilibili.com/video/BV1fH8Uz4EnA</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/0d90090984d159aaa8f156e8552871dce30e0f82.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/102571d5bfff18edabf1feffd66e58573ff0af69.jpg</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>BV11k82zNEMv</t>
+          <t>BV1fH8Uz4EnA</t>
         </is>
       </c>
       <c r="Q67" t="n">
         <v>201</v>
       </c>
       <c r="R67" t="n">
-        <v>234045035</v>
+        <v>1061980355</v>
       </c>
       <c r="S67" s="2" t="n">
-        <v>45869.63763888889</v>
+        <v>45870.50835648148</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>胃束带手术...实现减肥目的</t>
+          <t>记忆居然真的可以遗传？</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>00:40</t>
+          <t>03:27</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>医学薅羊毛</t>
+          <t>人人都爱张芝士</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45869.01388888889</v>
+        <v>45870.40997685185</v>
       </c>
       <c r="E68" t="n">
-        <v>2349</v>
+        <v>2022</v>
       </c>
       <c r="F68" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
+        <v>14</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>如果人类无法主动遗传记忆，
+那我们怎么会怕蛇、怕高、梦见未到过的地方？
+天才或许不是天赋异禀，只是“记忆没删干净”。
+荣格说，人类的“集体无意识”是可以遗传的，
+也许你每天的情绪与冲动，
+都在复读你祖先的故事。
+今天我们聊一个炸裂又颠覆的理论：
+记忆，真的能遗传吗？
+欢迎在评论区分享你的“前世记忆”！
+⚡️觉得有趣？别忘了给我来个【点赞】【收藏】【投币】，
+这是你传递给下个观众的“集体本能”！
+72小时后星球毁灭，你怎么选？ BV1KrKXzoEqY</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1KD8zz2EJb</t>
+          <t>https://www.bilibili.com/video/BV1gohHzkEQX</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/ddfa7e449d8bc1fd83ac7159d49d83e42c83f9af.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/ee257e218c879782b131793415aa62c27eb135cc.jpg</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>BV1KD8zz2EJb</t>
+          <t>BV1gohHzkEQX</t>
         </is>
       </c>
       <c r="Q68" t="n">
         <v>201</v>
       </c>
       <c r="R68" t="n">
-        <v>1185961198</v>
+        <v>3493282432682789</v>
       </c>
       <c r="S68" s="2" t="n">
-        <v>45869.6378587963</v>
+        <v>45870.50818287037</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>你以为的歨步坦协同实际的步坦，难怪一百多年各国都玩不明白＃军</t>
+          <t>中美体检有什么差异？肿瘤标志物可以查出癌症吗？2025-08-01 17-52-59</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>03:57</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>bili_16525196663</t>
+          <t>医痴的木头屋授权</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45869.02077546297</v>
+        <v>45870.41697916666</v>
       </c>
       <c r="E69" t="n">
-        <v>2343</v>
+        <v>1998</v>
       </c>
       <c r="F69" t="n">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="G69" t="n">
+        <v>20</v>
+      </c>
+      <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="n">
-        <v>4</v>
-      </c>
       <c r="I69" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025年8月1日
+声明：本视频是医学科普，不能作为诊断和治疗的依据</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Cv86z1Ejj</t>
+          <t>https://www.bilibili.com/video/BV18Fhpz6EP7</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/589c3addc46d1d2f9974bbf29d53f6e780ffa7ba.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/ee474b41e585e5aad1f126dc650600408e861903.jpg</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>BV1Cv86z1Ejj</t>
+          <t>BV18Fhpz6EP7</t>
         </is>
       </c>
       <c r="Q69" t="n">
         <v>201</v>
       </c>
       <c r="R69" t="n">
-        <v>3546911782996006</v>
+        <v>2084669661</v>
       </c>
       <c r="S69" s="2" t="n">
-        <v>45869.6378587963</v>
+        <v>45870.53380787037</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>格局看着非常好，实际穷的吃粑粑</t>
+          <t>7月楼市数据出炉！百城二手房价全部下跌 没有奇迹</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>05:46</t>
+          <t>01:36</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>紫微-星河运营</t>
+          <t>玉哥谈势论道</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45869.37638888889</v>
+        <v>45870.2416087963</v>
       </c>
       <c r="E70" t="n">
-        <v>2335</v>
+        <v>1970</v>
       </c>
       <c r="F70" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G70" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="n">
         <v>4</v>
       </c>
-      <c r="I70" t="n">
-        <v>27</v>
-      </c>
       <c r="J70" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1ZV8yzjE3c</t>
+          <t>https://www.bilibili.com/video/BV1LChJzyE5D</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/e66c5985859943ad454c9c7020578d6b2f819b10.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/52c51360b752a4005a904f80f337680a96c12ced.jpg</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>BV1ZV8yzjE3c</t>
+          <t>BV1LChJzyE5D</t>
         </is>
       </c>
       <c r="Q70" t="n">
         <v>201</v>
       </c>
       <c r="R70" t="n">
-        <v>3493270747351212</v>
+        <v>54431919</v>
       </c>
       <c r="S70" s="2" t="n">
-        <v>45869.63768518518</v>
+        <v>45870.5272337963</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>實驗證明，你和平行宇宙的你存在相互干擾，只要結果沒有被觀察，一切皆</t>
+          <t>3分钟解释每一种常见谬误2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>36:24</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>老高复读机</t>
+          <t>独断的睡梦</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45869.00369212963</v>
+        <v>45870.42361111111</v>
       </c>
       <c r="E71" t="n">
-        <v>2331</v>
+        <v>1944</v>
       </c>
       <c r="F71" t="n">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I71" t="n">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
-      </c>
-      <c r="L71" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>原作者：The Paint Explainer
+翻译/校对：双玥</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1QH86zsEbV</t>
+          <t>https://www.bilibili.com/video/BV1wMhnz4EUj</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/de272656cb64ff4dc89bac50a1ddeb8779595225.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/ec8977dc466d2a5351cccfb379c4448c79c58fa5.jpg</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>BV1QH86zsEbV</t>
+          <t>BV1wMhnz4EUj</t>
         </is>
       </c>
       <c r="Q71" t="n">
         <v>201</v>
       </c>
       <c r="R71" t="n">
-        <v>476748699</v>
+        <v>1299531649</v>
       </c>
       <c r="S71" s="2" t="n">
-        <v>45869.63787037037</v>
+        <v>45870.53377314815</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>自然发生学说复辟？年迈老头反对进化论思想荼毒？</t>
+          <t>躲在床下的奇怪男人</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>08:41</t>
+          <t>01:13</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>猎镰姬venator</t>
+          <t>小新宇宙</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45869.04166666666</v>
+        <v>45870.04974537037</v>
       </c>
       <c r="E72" t="n">
-        <v>2276</v>
+        <v>1856</v>
       </c>
       <c r="F72" t="n">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="G72" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J72" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>6</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV186hwzQE8C</t>
+          <t>https://www.bilibili.com/video/BV1nVhEzLETv</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/73b5ac846c96db6ac7c718f756211eac958e39b9.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/2b646dcd26b2e6c141c78b1cc84b30b98c960dfc.jpg</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>BV186hwzQE8C</t>
+          <t>BV1nVhEzLETv</t>
         </is>
       </c>
       <c r="Q72" t="n">
         <v>201</v>
       </c>
       <c r="R72" t="n">
-        <v>1155843410</v>
+        <v>1397337579</v>
       </c>
       <c r="S72" s="2" t="n">
-        <v>45869.63784722222</v>
+        <v>45870.50835648148</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>饮用水中的科学【中国科学院科学公开课S07E08】</t>
+          <t>【华西医院麻醉危机】患者术中血压骤降，气道压升高，麻醉紧急叫二线！</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>57:56</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>二次元的中科院物理所</t>
+          <t>人卫电子音像出版社</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45869.53472222222</v>
+        <v>45870.14108796296</v>
       </c>
       <c r="E73" t="n">
-        <v>2216</v>
+        <v>1850</v>
       </c>
       <c r="F73" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="J73" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K73" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>很多关于“好水”的秘密就藏在日常里。你知道古人如何凭一眼活水辨别水质？你知道现代自来水厂怎样把浑浊原水变成安全饮水？从青草沙水库到南水北调，从氯消毒的百年传奇到纳米絮凝、臭氧-活性炭、超滤膜的最新工艺，每一滴水都经历了科学与工程的层层守护。</t>
+          <t>本课程涵盖临床常见的麻醉危机事件，每堂课都包括危机事件现场情境模拟视频、临床分析与处理讲解、该危机事件正确应对现场模拟视频演示。建议按照如下方法观看每一堂视频课：
+Step 1. 沉浸式观看麻醉危机情境模拟视频，不建议暂停，可以在看完后再低头思考（自己会怎么做）。
+Step 2. 跟随讲授，梳理上一段现场模拟视频中发生了什么，最重要的问题是什么，在什么场景（外科或麻醉操作）下发生的，如何拆解与分析最关键的问题，类似的问题如何分析与处理，本例的特殊之处，极端情况下如何应对，现场还有哪些问题与行为值得思考与优</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV18K8CzAEXG</t>
+          <t>https://www.bilibili.com/video/BV1kxh7z7Eyj</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/8571f253004a80342d21685099a08f2b456e6ae6.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/a94644b88672bcc1de0e5ef6386053eebc90ac54.jpg</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>BV18K8CzAEXG</t>
+          <t>BV1kxh7z7Eyj</t>
         </is>
       </c>
       <c r="Q73" t="n">
         <v>201</v>
       </c>
       <c r="R73" t="n">
-        <v>407045223</v>
+        <v>1757393898</v>
       </c>
       <c r="S73" s="2" t="n">
-        <v>45869.63758101852</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>流量警告！一口气看完史上最炸裂真人秀综艺《野兽游戏》</t>
+          <t>34岁男子两年前确诊滑膜肉瘤，化疗两次后自行寻求中药治疗，现已出现转移，恐怕难以保肢。</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>02:14:29</t>
+          <t>04:22</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>霖霖觅影</t>
+          <t>骨肿瘤医生沈靖南</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45869.32265046296</v>
+        <v>45870.11996527778</v>
       </c>
       <c r="E74" t="n">
-        <v>2181</v>
+        <v>1788</v>
       </c>
       <c r="F74" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G74" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H74" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J74" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>本片是由亚马逊影业联合全球个人粉丝第一野兽先生推出的竞技综艺，2000人为500万美元展开刺激又激烈的身心角逐！该节目打破数十项吉尼斯世界纪录！</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1UY8yzYETD</t>
+          <t>https://www.bilibili.com/video/BV1PchEzWESm</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/fc53d4df27c8f991b4f61297d9353f6f07f4be7b.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/ae03d79c0909e6c50cdcf3e36f3b96fc021f1635.jpg</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>BV1UY8yzYETD</t>
+          <t>BV1PchEzWESm</t>
         </is>
       </c>
       <c r="Q74" t="n">
         <v>201</v>
       </c>
       <c r="R74" t="n">
-        <v>400518933</v>
+        <v>663143533</v>
       </c>
       <c r="S74" s="2" t="n">
-        <v>45869.6377199074</v>
+        <v>45870.50832175926</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>假如发生战争，中国军工爆发力有多强！</t>
+          <t>如果将长城拆掉建成房子</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>千年岐黄文化</t>
+          <t>小新宇宙</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45869.07837962963</v>
+        <v>45870.38471064815</v>
       </c>
       <c r="E75" t="n">
-        <v>2147</v>
+        <v>1784</v>
       </c>
       <c r="F75" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -5687,13 +5707,13 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -5702,1276 +5722,1258 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1PU8qzgEiC</t>
+          <t>https://www.bilibili.com/video/BV1i2hHzJEYw</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/0c171fb9b8058615c2dd4ccc9eea40fc9ac3b249.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/0adf516a5b6dc8433034cf856a0e00a7b8480ddf.jpg</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>BV1PU8qzgEiC</t>
+          <t>BV1i2hHzJEYw</t>
         </is>
       </c>
       <c r="Q75" t="n">
         <v>201</v>
       </c>
       <c r="R75" t="n">
-        <v>1629604023</v>
+        <v>1397337579</v>
       </c>
       <c r="S75" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.53390046296</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>使用6个方法提高你的骨密度</t>
+          <t>“买一根送一根？”——暑假来了，你家娃的包皮一定要割吗？</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>07:22</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鹏哥谈健康</t>
+          <t>丹丹医生</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45869.476875</v>
+        <v>45870.50347222222</v>
       </c>
       <c r="E76" t="n">
-        <v>2113</v>
+        <v>1715</v>
       </c>
       <c r="F76" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G76" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H76" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="J76" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K76" t="n">
-        <v>43</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>简介：今天来教你6个增加骨密度的方法。有的中老年朋友弯腰捡个东西就会突然感觉腰背部一阵刺痛，还有的老人只是平地轻轻摔一跤就髋部骨折住院了。这些情况大多和骨质疏松有关。然而，骨质疏松并不是老年人的专利。如果你是年轻人，你要注意，你现在所做的一切都在影响你未来骨头的坚固程度。
-文献：
-微重力对骨骼结构和功能的影响
-https://www.nature.com/articles/s41526-022-00194-8
-超重力和微重力对小鼠的骨骼和肌肉质量表现出逆转效应
-https://www.nature.c</t>
-        </is>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1cu82zZEeX</t>
+          <t>https://www.bilibili.com/video/BV1sthHzaEXV</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/186e81e780236ace17c30a1d6f05bdb9b9e57d37.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/5f37a3a6fcd28e904f600369f62e5eff0d139161.jpg</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>BV1cu82zZEeX</t>
+          <t>BV1sthHzaEXV</t>
         </is>
       </c>
       <c r="Q76" t="n">
         <v>201</v>
       </c>
       <c r="R76" t="n">
-        <v>388559607</v>
+        <v>687936696</v>
       </c>
       <c r="S76" s="2" t="n">
-        <v>45869.63761574074</v>
+        <v>45870.53344907407</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>你丢掉的塑料瓶正在以不同身份回到你的身边</t>
+          <t>中国的大基建还能搞多久？</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>00:54</t>
+          <t>30:55</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>图谈生灵</t>
+          <t>揭秘IS</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45869.09372685185</v>
+        <v>45870.15765046296</v>
       </c>
       <c r="E77" t="n">
-        <v>1944</v>
+        <v>1698</v>
       </c>
       <c r="F77" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>你丢掉的塑料瓶正在以不同身份回到你的身边</t>
+          <t>中国的大基建还能搞多久？</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1zU8kzyEBs</t>
+          <t>https://www.bilibili.com/video/BV1y7h7zXEfc</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/cc76b7f1d83594048c8314e10098cfb7b3358ba1.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/b69992419fd929f694b68ecf2a932c4ba7fb95a5.jpg</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>BV1zU8kzyEBs</t>
+          <t>BV1y7h7zXEfc</t>
         </is>
       </c>
       <c r="Q77" t="n">
         <v>201</v>
       </c>
       <c r="R77" t="n">
-        <v>620268276</v>
+        <v>3461564753513343</v>
       </c>
       <c r="S77" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>【会员专享】Youtube上最有名的失踪者和他失踪前不可解的监控录象  | 老高与小茉无尾音 | 20220903 |</t>
+          <t>《南京照相馆》隐藏剧情，日本建的八纮一宇塔究竟有多邪恶？</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>03:59</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>老高与小茉_频道转播</t>
+          <t>小朱观地球</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45869.14583333334</v>
+        <v>45870.45001157407</v>
       </c>
       <c r="E78" t="n">
-        <v>1907</v>
+        <v>1630</v>
       </c>
       <c r="F78" t="n">
+        <v>192</v>
+      </c>
+      <c r="G78" t="n">
+        <v>21</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+      <c r="I78" t="n">
+        <v>29</v>
+      </c>
+      <c r="J78" t="n">
         <v>17</v>
       </c>
-      <c r="G78" t="n">
-        <v>3</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aWet6qBDsZI&amp;list=PLMUs_BF93V5auQ8Bz37OsF4RqpMH38kmc&amp;index=91</t>
+          <t>《南京照相馆》隐藏剧情，日本建的八纮一宇塔究竟有多邪恶？</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1wf8zz3E2b</t>
+          <t>https://www.bilibili.com/video/BV1jrhHzXEQv</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/a92af28e6cac9f8f74df2498ce5f311066985a09.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/7b170411a937033caf0eacb823fe144c5e09db9b.jpg</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>BV1wf8zz3E2b</t>
+          <t>BV1jrhHzXEQv</t>
         </is>
       </c>
       <c r="Q78" t="n">
         <v>201</v>
       </c>
       <c r="R78" t="n">
-        <v>42332195</v>
+        <v>128501332</v>
       </c>
       <c r="S78" s="2" t="n">
-        <v>45869.63780092593</v>
+        <v>45870.5337037037</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>世界上威力最强大的核武器</t>
+          <t>死而复生，台风“竹节草”这极具传奇且罕见的曲折一生</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>01:52</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>你很火啊</t>
+          <t>Meteorological佩巾</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45869.08333333334</v>
+        <v>45870.25091435185</v>
       </c>
       <c r="E79" t="n">
-        <v>1860</v>
+        <v>1604</v>
       </c>
       <c r="F79" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G79" t="n">
         <v>17</v>
       </c>
       <c r="H79" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>世界上威力最强大的核武器</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1mL8RzdEVK</t>
+          <t>https://www.bilibili.com/video/BV191hJzGEhn</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/0fba3919a7031740a759a617ed6636a74c2732b7.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/4844292b324190a0995da192befd24606b3d20a6.jpg</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>BV1mL8RzdEVK</t>
+          <t>BV191hJzGEhn</t>
         </is>
       </c>
       <c r="Q79" t="n">
         <v>201</v>
       </c>
       <c r="R79" t="n">
-        <v>555971193</v>
+        <v>485649738</v>
       </c>
       <c r="S79" s="2" t="n">
-        <v>45869.63782407407</v>
+        <v>45870.53445601852</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>四千亿只蝗虫哪去了？这可能就是人类的结局。【搬运·老高与小茉】</t>
+          <t>基孔肯雅热，会传播到你的城市吗？【茼蒿会】</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>05:26</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>老高与小茉日常更新</t>
+          <t>茼蒿会</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45869.46321759259</v>
+        <v>45870.42269675926</v>
       </c>
       <c r="E80" t="n">
-        <v>1774</v>
+        <v>1488</v>
       </c>
       <c r="F80" t="n">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I80" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J80" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>积极灭蚊总是对的，但是不需要恐慌。</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Si82zuEyk</t>
+          <t>https://www.bilibili.com/video/BV1khhHz8ErF</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/1b7e2f2e0b1515234615902c7e5ec26bedc2851e.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/622399bb27fd1389280a204bad2e762f098f89c8.jpg</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>BV1Si82zuEyk</t>
+          <t>BV1khhHz8ErF</t>
         </is>
       </c>
       <c r="Q80" t="n">
         <v>201</v>
       </c>
       <c r="R80" t="n">
-        <v>401277854</v>
+        <v>1534247138</v>
       </c>
       <c r="S80" s="2" t="n">
-        <v>45869.63762731481</v>
+        <v>45870.53378472223</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>“旺仔小乔”商标折戟，蒙面疑云，演唱会风波……【全站唯一】详解“小乔们”面具下的商业博弈！</t>
+          <t>你不知道的有趣冷知识！</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>老猪解读</t>
+          <t>大兵冷知识</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45869.55569444445</v>
+        <v>45870.11693287037</v>
       </c>
       <c r="E81" t="n">
-        <v>1766</v>
+        <v>1485</v>
       </c>
       <c r="F81" t="n">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J81" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1V281zCEHE</t>
+          <t>https://www.bilibili.com/video/BV1PwhEzXE3y</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/185f001e2e07ae67d6e9f1332093ce5d73be8e8d.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/dabd5628cf3f1fe2a2968b6d19d225ed65184d42.jpg</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>BV1V281zCEHE</t>
+          <t>BV1PwhEzXE3y</t>
         </is>
       </c>
       <c r="Q81" t="n">
         <v>201</v>
       </c>
       <c r="R81" t="n">
-        <v>622929161</v>
+        <v>3546717876127933</v>
       </c>
       <c r="S81" s="2" t="n">
-        <v>45869.63758101852</v>
+        <v>45870.50832175926</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>【酰代有机合成】酯化反应/Steglich酯化/DCC-DMAP酯化</t>
+          <t>“悬浮的拇指”如何重建，当地医生：这个手术哪里能做</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>03:26</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>碳酰实验室</t>
+          <t>协和手足外科陈江海</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45869.27083333334</v>
+        <v>45870.04166666666</v>
       </c>
       <c r="E82" t="n">
-        <v>1765</v>
+        <v>1485</v>
       </c>
       <c r="F82" t="n">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="G82" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>16</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>【酰代有机合成】系列001</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Xc8CziE3n</t>
+          <t>https://www.bilibili.com/video/BV1uL8fzGEiH</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/ac6f5a11ba56de64a1e9cfafb3811033c34787ad.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/ffecd324410b3a3255a4da0c463f0749e9d98209.jpg</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>BV1Xc8CziE3n</t>
+          <t>BV1uL8fzGEiH</t>
         </is>
       </c>
       <c r="Q82" t="n">
         <v>201</v>
       </c>
       <c r="R82" t="n">
-        <v>354832248</v>
+        <v>1343087903</v>
       </c>
       <c r="S82" s="2" t="n">
-        <v>45869.63774305556</v>
+        <v>45870.50835648148</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>肠癌+前列腺增生 ，吃中药，小便排出“恐怖东西”，医：这是好事</t>
+          <t>我的朋友！！！你今天为什么还不找我！！！</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>01:28</t>
+          <t>00:11</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>中医世家王教授</t>
+          <t>小八卡哇咿捏</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45869.17013888889</v>
+        <v>45870.17751157407</v>
       </c>
       <c r="E83" t="n">
-        <v>1733</v>
+        <v>1484</v>
       </c>
       <c r="F83" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>肠癌+前列腺增生 ，吃中药，小便排出“恐怖东西”，医：这是好事。</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1rW8CzDEdu</t>
+          <t>https://www.bilibili.com/video/BV1z8h7zyEsi</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/9e5fa320d0b421a32fc7fdd553b98f72c8f72a91.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/3beaba8c79227e604dd5da72da84f24cfe956509.jpg</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>BV1rW8CzDEdu</t>
+          <t>BV1z8h7zyEsi</t>
         </is>
       </c>
       <c r="Q83" t="n">
         <v>201</v>
       </c>
       <c r="R83" t="n">
-        <v>1090986333</v>
+        <v>159592923</v>
       </c>
       <c r="S83" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.52746527778</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>大头儿子的真名叫什么？</t>
+          <t>我妈网上买的假北柴胡</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>00:46</t>
+          <t>00:48</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>小枫科普馆</t>
+          <t>辉大帅本草</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45869.16758101852</v>
+        <v>45870.12752314815</v>
       </c>
       <c r="E84" t="n">
-        <v>1706</v>
+        <v>1453</v>
       </c>
       <c r="F84" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G84" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>北柴胡真假鉴别</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Cr8kzJEkF</t>
+          <t>https://www.bilibili.com/video/BV1gQh7z8Et6</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/52a1934b775215f5f0f6a3843a6471182972ee5b.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/f542b7e1b9a434d386046c61e22b79981a6150ea.jpg</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>BV1Cr8kzJEkF</t>
+          <t>BV1gQh7z8Et6</t>
         </is>
       </c>
       <c r="Q84" t="n">
         <v>201</v>
       </c>
       <c r="R84" t="n">
-        <v>3546574076512893</v>
+        <v>315639793</v>
       </c>
       <c r="S84" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.50832175926</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>机器人胆囊切除术补全手术</t>
+          <t>两性健康，十五厘米是平均长度吗</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>02:40</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>医学大爆炸</t>
+          <t>郭哥真性情</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45869.59027777778</v>
+        <v>45870.22765046296</v>
       </c>
       <c r="E85" t="n">
-        <v>1634</v>
+        <v>1392</v>
       </c>
       <c r="F85" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>医学视频，</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1cG82zdEDq</t>
+          <t>https://www.bilibili.com/video/BV17HhnzmEk9</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/7a7881c3f9fbc967093324c3832699e6e2a96421.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/daff6b4404b97043336cb7fb11af64578de8c10f.jpg</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>BV1cG82zdEDq</t>
+          <t>BV17HhnzmEk9</t>
         </is>
       </c>
       <c r="Q85" t="n">
         <v>201</v>
       </c>
       <c r="R85" t="n">
-        <v>590846297</v>
+        <v>3546731499227599</v>
       </c>
       <c r="S85" s="2" t="n">
-        <v>45869.63755787037</v>
+        <v>45870.5272800926</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>印度，吃浮尸的最变态的教派，靠黑魔法左右三哥家地方政治</t>
+          <t>人类为什么执着于造出人形机器人？这科学吗？</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>科学星星</t>
+          <t>科普中国</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45869.13569444444</v>
+        <v>45870.02083333334</v>
       </c>
       <c r="E86" t="n">
-        <v>1619</v>
+        <v>1384</v>
       </c>
       <c r="F86" t="n">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>2</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>印度，吃浮尸的最变态的教派，靠黑魔法左右三哥家地方政治</t>
+          <t>如今，机器人都在往“更像人”的动作上“内卷”。为啥就非得是人形？</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1XP8CzeEqE</t>
+          <t>https://www.bilibili.com/video/BV1QouYzREkE</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/c5fb7768f84deaed62087597b25c0d2f6f508a42.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/01acc0304d32c8491918cbf4804005825bdd14c0.jpg</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>BV1XP8CzeEqE</t>
+          <t>BV1QouYzREkE</t>
         </is>
       </c>
       <c r="Q86" t="n">
         <v>201</v>
       </c>
       <c r="R86" t="n">
-        <v>2093064881</v>
+        <v>92601724</v>
       </c>
       <c r="S86" s="2" t="n">
-        <v>45869.63780092593</v>
+        <v>45870.50836805555</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>【山东方言】屁股，为什么叫“腚”呢？</t>
+          <t>大地震的余震能量和数量与周边水环境成正比的分析～堪察加案例</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>03:06</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>胡啰啰讲方言</t>
+          <t>茫崖陨石天山茶</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45869.18050925926</v>
+        <v>45870.27982638889</v>
       </c>
       <c r="E87" t="n">
-        <v>1618</v>
+        <v>1355</v>
       </c>
       <c r="F87" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G87" t="n">
         <v>34</v>
       </c>
       <c r="H87" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>地震～地球上的氢循环理论</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1u88kzZEGj</t>
+          <t>https://www.bilibili.com/video/BV1CshJzdE6S</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/909f89ce6e0bf319482d903f19b2239e22dbe98c.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/47f0ee7b4f22d848b00a044497dc19b2005f24de.jpg</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>BV1u88kzZEGj</t>
+          <t>BV1CshJzdE6S</t>
         </is>
       </c>
       <c r="Q87" t="n">
         <v>201</v>
       </c>
       <c r="R87" t="n">
-        <v>3546685177334079</v>
+        <v>3546877425355038</v>
       </c>
       <c r="S87" s="2" t="n">
-        <v>45869.63777777777</v>
+        <v>45870.53434027778</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>盘点——护眼界十大谣言</t>
+          <t>核泄漏事故发生，空中出现不明物体编队？它们究竟是谁？干什么？</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>02:27</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>眼科医生陶勇</t>
+          <t>揭秘cg</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45869.2959837963</v>
+        <v>45870.05923611111</v>
       </c>
       <c r="E88" t="n">
-        <v>1611</v>
+        <v>1345</v>
       </c>
       <c r="F88" t="n">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="G88" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
+        <v>5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>46</v>
-      </c>
-      <c r="J88" t="n">
-        <v>22</v>
-      </c>
       <c r="K88" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>以下是很多特别典型且很多人愿意相信的谣言，今天集中给大家澄清一下。</t>
+          <t>核泄漏事故发生，空中出现不明物体编队？它们究竟是谁？干什么？</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1vn8yz6ExR</t>
+          <t>https://www.bilibili.com/video/BV1FghEz7E5k</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/a25bded34c2e283312bf7c5f833dcbedf1e86d18.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/a869fa3fda8ba817e438717871c4047623b8cf64.jpg</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>BV1vn8yz6ExR</t>
+          <t>BV1FghEz7E5k</t>
         </is>
       </c>
       <c r="Q88" t="n">
         <v>201</v>
       </c>
       <c r="R88" t="n">
-        <v>533279185</v>
+        <v>3546659652897030</v>
       </c>
       <c r="S88" s="2" t="n">
-        <v>45869.63773148148</v>
+        <v>45870.50835648148</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>危险的元素-金属锂，软如黄油，烈似炸药</t>
+          <t>火柴变星星</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>01:36</t>
+          <t>02:03</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>强哥来辣</t>
+          <t>靠谱小年青</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45869.52099537037</v>
+        <v>45870.03642361111</v>
       </c>
       <c r="E89" t="n">
-        <v>1602</v>
+        <v>1330</v>
       </c>
       <c r="F89" t="n">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>危险的元素-金属锂，软如黄油，烈似炸药</t>
+          <t>这就是能让孩子放下手机，爱上学习的科学小实验，让孩子看真实的科学小实验，不仅提升物理化知识，还能激发科学思维提升专注力。</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1v681zmEEQ</t>
+          <t>https://www.bilibili.com/video/BV1NChEzRE66</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/28c1aa3da9f59c5f2060108760ab06b8832bece8.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/3fd4aa3c2d1c449c52760a03691427923c195ace.jpg</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>BV1v681zmEEQ</t>
+          <t>BV1NChEzRE66</t>
         </is>
       </c>
       <c r="Q89" t="n">
         <v>201</v>
       </c>
       <c r="R89" t="n">
-        <v>397474807</v>
+        <v>77160261</v>
       </c>
       <c r="S89" s="2" t="n">
-        <v>45869.63759259259</v>
+        <v>45870.50835648148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>踝管综合征的踝管</t>
+          <t>印度人来中国挺直腰杆吃绝户</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>01:43</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>疏雨ANAT</t>
+          <t>j616j</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45869.16847222222</v>
+        <v>45870.19421296296</v>
       </c>
       <c r="E90" t="n">
-        <v>1594</v>
+        <v>1326</v>
       </c>
       <c r="F90" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G90" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
         <v>1</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>29</v>
-      </c>
-      <c r="J90" t="n">
-        <v>13</v>
-      </c>
-      <c r="K90" t="n">
-        <v>5</v>
-      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>踝管综合征的踝管</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Pi8kz9Ezv</t>
+          <t>https://www.bilibili.com/video/BV1pMhnz4EXJ</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/6e078ea5877c0f40fc927f9bb2f03f34ad5547cc.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/f8c2f77d15788e412cb10afc3e02a27d3bf9a226.jpg</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>BV1Pi8kz9Ezv</t>
+          <t>BV1pMhnz4EXJ</t>
         </is>
       </c>
       <c r="Q90" t="n">
         <v>201</v>
       </c>
       <c r="R90" t="n">
-        <v>1791260039</v>
+        <v>250361111</v>
       </c>
       <c r="S90" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.52741898148</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>低智反智，此人不封天理不容，揭露所谓老品种割韭菜第四集（共九集）</t>
+          <t>我们的故事你们见证了多少？能不能一键三连投点份子钱。</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>04:18</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>雅各布综合频道</t>
+          <t>钓小虎</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45869.45833333334</v>
+        <v>45870.37496527778</v>
       </c>
       <c r="E91" t="n">
-        <v>1582</v>
+        <v>1324</v>
       </c>
       <c r="F91" t="n">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="G91" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="K91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>大型科普吐槽连续剧，揭露所谓老品种割韭菜，见证短视频低智反智发展史，需要您的关注，点赞，转发，三连，谢谢，您的支持是我们最大的动力。</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Nf8CzdEkw</t>
+          <t>https://www.bilibili.com/video/BV1VDhHz2EGC</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/9b0282133a68987744c9164b5f5690ffc3dcc735.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/61e7d7025a93a8eac77259c027351e2c049d9f51.jpg</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>BV1Nf8CzdEkw</t>
+          <t>BV1VDhHz2EGC</t>
         </is>
       </c>
       <c r="Q91" t="n">
         <v>201</v>
       </c>
       <c r="R91" t="n">
-        <v>347698854</v>
+        <v>437503612</v>
       </c>
       <c r="S91" s="2" t="n">
-        <v>45869.63762731481</v>
+        <v>45870.50820601852</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>爆款AI视频制作神器，给它打99分！</t>
+          <t>粉底液硬要进护肤圈？！到底是不是智商税？</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>01:50</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>我是天才蛙</t>
+          <t>Y学长的X</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45869.41805555556</v>
+        <v>45870.41104166667</v>
       </c>
       <c r="E92" t="n">
-        <v>1549</v>
+        <v>1308</v>
       </c>
       <c r="F92" t="n">
-        <v>493</v>
+        <v>359</v>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>爆款视频秘诀？看这里！揭秘抖音几十万播放的动物视频，广告创意、爆炸开箱幕后！输入中文提示词，Agent自动生成创意、分镜、配音、剪辑，一条龙搞定专业视频！ 轻松复刻爆款或打造原创，赶紧来体验！
-星流AI ：https://www.xingliu.art</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1En8qzbEfK</t>
+          <t>https://www.bilibili.com/video/BV1TNhpzMEgV</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/2365ae3bd920edc3b04d88cc77d33069d12dbbbb.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/65b41434a644873e424bd248d884b2c68990ad59.jpg</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>BV1En8qzbEfK</t>
+          <t>BV1TNhpzMEgV</t>
         </is>
       </c>
       <c r="Q92" t="n">
         <v>201</v>
       </c>
       <c r="R92" t="n">
-        <v>126158587</v>
+        <v>1544170203</v>
       </c>
       <c r="S92" s="2" t="n">
-        <v>45869.63765046297</v>
+        <v>45870.50818287037</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>站起来了！曼联4比1伯恩茅斯，阿莫林 带队豪取季前赛两连胜</t>
+          <t>特朗普疯狂辱印！印度甲亢哥吓的脸色煞白还强装胜利？印度网民竟还想联合中国对抗美国，做梦做大了吧</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>00:40</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>siusiuxiu看世界</t>
+          <t>啸风听雷</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45869.15494212963</v>
+        <v>45870.36578703704</v>
       </c>
       <c r="E93" t="n">
-        <v>1530</v>
+        <v>1295</v>
       </c>
       <c r="F93" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -6979,600 +6981,597 @@
       <c r="K93" t="n">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1Xp8kzaEU5</t>
+          <t>https://www.bilibili.com/video/BV1VNhJz6E1a</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/90e2036126dfd13630e5dc2d9b3fd3a6a7fe158c.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/61387dcc308a0128852d0dbd26f59bb03d332263.jpg</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>BV1Xp8kzaEU5</t>
+          <t>BV1VNhJz6E1a</t>
         </is>
       </c>
       <c r="Q93" t="n">
         <v>201</v>
       </c>
       <c r="R93" t="n">
-        <v>3546674169383655</v>
+        <v>1002851110</v>
       </c>
       <c r="S93" s="2" t="n">
-        <v>45869.63778935185</v>
+        <v>45870.50820601852</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>激光打蚊子，黑科技还是智商税？</t>
+          <t>1分钟了解这个没有脑子的天才规划大师</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>01:01</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>科学火箭叔</t>
+          <t>靠谱百科菌</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45869.54383101852</v>
+        <v>45870.4375</v>
       </c>
       <c r="E94" t="n">
-        <v>1529</v>
+        <v>1293</v>
       </c>
       <c r="F94" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="G94" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>16</v>
+      </c>
+      <c r="J94" t="n">
         <v>2</v>
       </c>
-      <c r="I94" t="n">
-        <v>12</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
       <c r="K94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1bX81zzEUY</t>
+          <t>https://www.bilibili.com/video/BV1Ma8hzoEjM</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/bfaad86198685591feae4d521fb73ec136b17914.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/b991577a67dd517f461c028eb4bb66237884e00a.jpg</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>BV1bX81zzEUY</t>
+          <t>BV1Ma8hzoEjM</t>
         </is>
       </c>
       <c r="Q94" t="n">
         <v>201</v>
       </c>
       <c r="R94" t="n">
-        <v>554729147</v>
+        <v>14408382</v>
       </c>
       <c r="S94" s="2" t="n">
-        <v>45869.63758101852</v>
+        <v>45870.50815972222</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>手机用久了，为什么电池耗得更快？</t>
+          <t>古董机器#解压视频#机械设备#机械之美#科普#海外知新</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>03:26</t>
+          <t>00:55</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>事物宫冷知识</t>
+          <t>海外知新</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45869.35416666666</v>
+        <v>45870.19658564815</v>
       </c>
       <c r="E95" t="n">
-        <v>1479</v>
+        <v>1224</v>
       </c>
       <c r="F95" t="n">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="G95" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="J95" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>一般来说，手机的更换周期是每40个月一次。可是如果你持续使用手机超过两年，是否会感觉电池比刚开始用时耗得更快？这并不是厂商故意想让你频繁更换产品，而是有科学上的原因的。
-▪ 背景音乐
-: Ether Oar-The Whole Other
-: Street Smart - Quincas Moreira
-: When Johnny Comes Marching Home - Cooper Cannell
-: Cartoon Bank Heist (Sting) - Doug Maxwell/Media R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1si89zpE2Z</t>
+          <t>https://www.bilibili.com/video/BV1NKhnzZEkZ</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/dd566ac8f1f8f562585999f560bb6d22fe4543a9.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/687fd71c2db47cc052ab80566f4165d74d82a296.jpg</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>BV1si89zpE2Z</t>
+          <t>BV1NKhnzZEkZ</t>
         </is>
       </c>
       <c r="Q95" t="n">
         <v>201</v>
       </c>
       <c r="R95" t="n">
-        <v>3546748442118332</v>
+        <v>3494380069456162</v>
       </c>
       <c r="S95" s="2" t="n">
-        <v>45869.63769675926</v>
+        <v>45870.5274074074</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>【震撼】这是一部需要反复观看的视频，你可能不知道，你的人生已经被人带了节奏  | 老高与小茉无尾音 | 20250611 |</t>
+          <t>什么？空气炸锅就是烤箱的弟弟？</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>32:18</t>
+          <t>02:41</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>老高与小茉_频道转播</t>
+          <t>珂姬与科技</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45869.52083333334</v>
+        <v>45870.45446759259</v>
       </c>
       <c r="E96" t="n">
-        <v>1478</v>
+        <v>1191</v>
       </c>
       <c r="F96" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J96" t="n">
         <v>2</v>
       </c>
       <c r="K96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MgHfu0aouow</t>
+          <t>blender制作</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV19882zVETp</t>
+          <t>https://www.bilibili.com/video/BV1pehHztEFx</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/d1001f6096ecab4816dfc0cb6fb140187b2190cc.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/47158f244defb88158b94994af7bd960079a3c9d.jpg</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>BV19882zVETp</t>
+          <t>BV1pehHztEFx</t>
         </is>
       </c>
       <c r="Q96" t="n">
         <v>201</v>
       </c>
       <c r="R96" t="n">
-        <v>42332195</v>
+        <v>325180167</v>
       </c>
       <c r="S96" s="2" t="n">
-        <v>45869.63759259259</v>
+        <v>45870.50814814815</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>香蕉的种植与收割，探索香蕉如何在加工厂加工的</t>
+          <t>鉴定网络热门蚂蚁视频19：漏洞百出，我说啥就是啥</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>03:40</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>全球见闻笔记</t>
+          <t>红足酱rufipes</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45869.02758101852</v>
+        <v>45870.14487268519</v>
       </c>
       <c r="E97" t="n">
-        <v>1477</v>
+        <v>1188</v>
       </c>
       <c r="F97" t="n">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I97" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K97" t="n">
         <v>2</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>香蕉的种植与收割，探索香蕉如何在加工厂加工的</t>
+          <t>免责声明：
+本视频所述内容基于公开学术研究、昆虫分类学共识及可验证的科学事实，旨在科普蚂蚁生态与鉴定知识。视频观点仅代表创作者基于现有资料的解读，不作为专业鉴定结论
+                   ——内容仅供参考，请理性甄别</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1CB86zCETT</t>
+          <t>https://www.bilibili.com/video/BV1WWh7zUEDT</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/6e391485a6644f48cea9e0d2dadbe33a212a6fde.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/4130cb04c0963f52afcd25701d708b44f324c380.jpg</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>BV1CB86zCETT</t>
+          <t>BV1WWh7zUEDT</t>
         </is>
       </c>
       <c r="Q97" t="n">
         <v>201</v>
       </c>
       <c r="R97" t="n">
-        <v>3546649158748278</v>
+        <v>2049103467</v>
       </c>
       <c r="S97" s="2" t="n">
-        <v>45869.6378587963</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>张宇-过敏，免疫系统的误会</t>
+          <t>日本“社畜”地獄般的生活，每天只能睡2小時，連續加班20小時</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>科普中国</t>
+          <t>涵哥扯吖</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45869.02083333334</v>
+        <v>45870.25784722222</v>
       </c>
       <c r="E98" t="n">
-        <v>1459</v>
+        <v>1182</v>
       </c>
       <c r="F98" t="n">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="G98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I98" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>对于“过敏星人”来说，一年四季就没有一个舒服的季节。让人过敏的东西太多了：柳絮、猫毛、金属·····基本上，我们日常生活中见到的，都可能成为过敏源。为什么人会这么容易过敏？容易过敏真的是我们抵抗力太低了吗？（出品：科普中国-创作培育计划）</t>
+          <t>日本“社畜”地獄般的生活，每天只能睡2小時，連續加班20小時</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1SwuezHEzZ</t>
+          <t>https://www.bilibili.com/video/BV12chnzwEto</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>http://i0.hdslb.com/bfs/archive/269ad57fba6a4821e1e689b6084f448711cecd49.jpg</t>
+          <t>http://i1.hdslb.com/bfs/archive/763f32204759b5e33bd807de186e7345373bca94.jpg</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>BV1SwuezHEzZ</t>
+          <t>BV12chnzwEto</t>
         </is>
       </c>
       <c r="Q98" t="n">
         <v>201</v>
       </c>
       <c r="R98" t="n">
-        <v>92601724</v>
+        <v>3546784334874935</v>
       </c>
       <c r="S98" s="2" t="n">
-        <v>45869.6378587963</v>
+        <v>45870.5344212963</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>采用Krakow技术（锁边缝合）修复断裂的跟腱</t>
+          <t>中国海警6分钟拖离侵权船只！有枪来来来冲我来！</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>06:21</t>
+          <t>01:26</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>医学薅羊毛</t>
+          <t>爱吃爱吃爱吃不胖</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45869.28226851852</v>
+        <v>45870.29520833334</v>
       </c>
       <c r="E99" t="n">
-        <v>1447</v>
+        <v>1157</v>
       </c>
       <c r="F99" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>3</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV13b8yzTESD</t>
+          <t>https://www.bilibili.com/video/BV1sHhJzZEaG</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/db61df4a98554e59906529de7fd023c67739522f.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/3fd0350523eaafe7dffa44304b677a91ca5ccf2d.jpg</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>BV13b8yzTESD</t>
+          <t>BV1sHhJzZEaG</t>
         </is>
       </c>
       <c r="Q99" t="n">
         <v>201</v>
       </c>
       <c r="R99" t="n">
-        <v>1185961198</v>
+        <v>1806048126</v>
       </c>
       <c r="S99" s="2" t="n">
-        <v>45869.63774305556</v>
+        <v>45870.53427083333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>你是否知道什么是路杀？一个视频带你深入了解路杀以及动物通道</t>
+          <t>半个多世纪以来，800多颗恒星突然消失，是外星人在建造戴森球？</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>18:39</t>
+          <t>19:57</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>蛙哒西蛙蛙蛙酱哒</t>
+          <t>宇宙-大揭秘</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45869.32178240741</v>
+        <v>45870.2084837963</v>
       </c>
       <c r="E100" t="n">
-        <v>1425</v>
+        <v>1146</v>
       </c>
       <c r="F100" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G100" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J100" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>交通运输部开发的 
-路杀上报网站https://www.transportecology.net/
-路杀上报app：路遇动物
-只有您的数据才能让交通运输局知道哪里需要修建动物通道~
-视频制作不易点个关注吧</t>
+          <t>半个多世纪以来，800多颗恒星突然消失，是外星人在建造戴森球？</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1mB8yzFET5</t>
+          <t>https://www.bilibili.com/video/BV1ishnz1EgT</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>http://i2.hdslb.com/bfs/archive/dee414d674932392a20b31ae5956886b3772d7ab.jpg</t>
+          <t>http://i0.hdslb.com/bfs/archive/0fc6f9179dcfde0bf4cb1753c002e1dd01d185ec.jpg</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>BV1mB8yzFET5</t>
+          <t>BV1ishnz1EgT</t>
         </is>
       </c>
       <c r="Q100" t="n">
         <v>201</v>
       </c>
       <c r="R100" t="n">
-        <v>21580285</v>
+        <v>3493137372678868</v>
       </c>
       <c r="S100" s="2" t="n">
-        <v>45869.6377199074</v>
+        <v>45870.52734953703</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>软脑膜的厚度大约只有0.1毫米左右</t>
+          <t>一人之下727话后的，走势和预测</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>00:56</t>
+          <t>03:04</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>无言良师</t>
+          <t>嗑学家大胖</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45869.375</v>
+        <v>45870.13612268519</v>
       </c>
       <c r="E101" t="n">
-        <v>1414</v>
+        <v>1131</v>
       </c>
       <c r="F101" t="n">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>https://www.bilibili.com/video/BV1sn8RzpE93</t>
+          <t>https://www.bilibili.com/video/BV1snh7zDEDu</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>http://i1.hdslb.com/bfs/archive/9e6e3ba69d49d02b19e08be2819e4ebb9014f252.jpg</t>
+          <t>http://i2.hdslb.com/bfs/archive/a40bd2f39d247b3dd96dec88056b8ff79bb28672.jpg</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>BV1sn8RzpE93</t>
+          <t>BV1snh7zDEDu</t>
         </is>
       </c>
       <c r="Q101" t="n">
         <v>201</v>
       </c>
       <c r="R101" t="n">
-        <v>285860095</v>
+        <v>1354965483</v>
       </c>
       <c r="S101" s="2" t="n">
-        <v>45869.63768518518</v>
+        <v>45870.50831018519</v>
       </c>
     </row>
   </sheetData>
